--- a/grupos/6ARHV - Estadisticos 2020.xlsx
+++ b/grupos/6ARHV - Estadisticos 2020.xlsx
@@ -2772,6 +2772,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
     <col min="2" max="6" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3308,7 +3309,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="4" width="50.7109375" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
+    <col min="2" max="4" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -3817,6 +3819,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
     <col min="2" max="6" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>

--- a/grupos/6ARHV - Estadisticos 2020.xlsx
+++ b/grupos/6ARHV - Estadisticos 2020.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="129">
   <si>
     <t>Materia</t>
   </si>
@@ -164,12 +164,12 @@
     <t>Por_Blancos</t>
   </si>
   <si>
+    <t>Domínguez Burgos Marioscar</t>
+  </si>
+  <si>
     <t>Duran Amezcua Maria Angelica</t>
   </si>
   <si>
-    <t>Domínguez Burgos Marioscar</t>
-  </si>
-  <si>
     <t>Martínez López Miguel Ángel</t>
   </si>
   <si>
@@ -194,21 +194,57 @@
     <t>ANTONIO</t>
   </si>
   <si>
+    <t>BRAVO</t>
+  </si>
+  <si>
     <t>BERINSTAIN</t>
   </si>
   <si>
     <t>CARPINTEYRO</t>
   </si>
   <si>
+    <t>CIRUELO</t>
+  </si>
+  <si>
+    <t>COSCAHUA</t>
+  </si>
+  <si>
+    <t>COXCAHUA</t>
+  </si>
+  <si>
+    <t>FLORES</t>
+  </si>
+  <si>
     <t>GONZALEZ</t>
   </si>
   <si>
+    <t>HIDALGO</t>
+  </si>
+  <si>
+    <t>HUERTA</t>
+  </si>
+  <si>
+    <t>MACUIXTLE</t>
+  </si>
+  <si>
     <t>MORAN</t>
   </si>
   <si>
+    <t>PALESTINO</t>
+  </si>
+  <si>
+    <t>PANTOJA</t>
+  </si>
+  <si>
     <t>RAMIREZ</t>
   </si>
   <si>
+    <t>RAMOS</t>
+  </si>
+  <si>
+    <t>ROMAN</t>
+  </si>
+  <si>
     <t>SANCHEZ</t>
   </si>
   <si>
@@ -218,6 +254,9 @@
     <t>VERA</t>
   </si>
   <si>
+    <t>YOPIHUA</t>
+  </si>
+  <si>
     <t>ZACARIAS</t>
   </si>
   <si>
@@ -227,24 +266,51 @@
     <t>ZEPEDA</t>
   </si>
   <si>
+    <t>IGNACIO</t>
+  </si>
+  <si>
     <t>ORTEGA</t>
   </si>
   <si>
+    <t>APALE</t>
+  </si>
+  <si>
     <t>SAN JUAN</t>
   </si>
   <si>
     <t>GAMBOA</t>
   </si>
   <si>
+    <t>MANCILLA</t>
+  </si>
+  <si>
+    <t>TZOYONTLE</t>
+  </si>
+  <si>
+    <t>ZEPAHUA</t>
+  </si>
+  <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>PERALTA</t>
+  </si>
+  <si>
     <t>REYES</t>
   </si>
   <si>
+    <t>APOLINAR</t>
+  </si>
+  <si>
     <t>HERNANDEZ</t>
   </si>
   <si>
     <t>CORDOBA</t>
   </si>
   <si>
+    <t>JUAREZ</t>
+  </si>
+  <si>
     <t>QUIAHUA</t>
   </si>
   <si>
@@ -260,24 +326,63 @@
     <t>MORALES</t>
   </si>
   <si>
+    <t>JOSE MANUEL</t>
+  </si>
+  <si>
     <t>JUAN CARLOS</t>
   </si>
   <si>
+    <t>BRENDA IVETH</t>
+  </si>
+  <si>
     <t>LUIS FERNANDO</t>
   </si>
   <si>
     <t>FATIMA</t>
   </si>
   <si>
+    <t>MARIA DEL CARMEN</t>
+  </si>
+  <si>
+    <t>GUADALUPE</t>
+  </si>
+  <si>
+    <t>DARIO</t>
+  </si>
+  <si>
+    <t>ABEL DAMIAN</t>
+  </si>
+  <si>
+    <t>MARIA JOSE</t>
+  </si>
+  <si>
     <t>MARIO</t>
   </si>
   <si>
-    <t>MARIA DEL CARMEN</t>
+    <t>MONSERRAT</t>
+  </si>
+  <si>
+    <t>ANGELL DAYANI</t>
+  </si>
+  <si>
+    <t>JOSUE SAMUEL</t>
+  </si>
+  <si>
+    <t>ALAN MIGUEL</t>
+  </si>
+  <si>
+    <t>YAZMIN ISABEL</t>
   </si>
   <si>
     <t>FRANCISCO JAVIER</t>
   </si>
   <si>
+    <t>ARIANA GUADALUPE</t>
+  </si>
+  <si>
+    <t>ALEXANDRO</t>
+  </si>
+  <si>
     <t>LORENA</t>
   </si>
   <si>
@@ -287,6 +392,12 @@
     <t>CARLOS DANIEL</t>
   </si>
   <si>
+    <t>CARLA DANIELA</t>
+  </si>
+  <si>
+    <t>KRISTAL</t>
+  </si>
+  <si>
     <t>LUIS ALBERTO</t>
   </si>
   <si>
@@ -294,117 +405,6 @@
   </si>
   <si>
     <t>NATHAEL</t>
-  </si>
-  <si>
-    <t>BRAVO</t>
-  </si>
-  <si>
-    <t>CIRUELO</t>
-  </si>
-  <si>
-    <t>COSCAHUA</t>
-  </si>
-  <si>
-    <t>COXCAHUA</t>
-  </si>
-  <si>
-    <t>FLORES</t>
-  </si>
-  <si>
-    <t>HIDALGO</t>
-  </si>
-  <si>
-    <t>HUERTA</t>
-  </si>
-  <si>
-    <t>MACUIXTLE</t>
-  </si>
-  <si>
-    <t>PALESTINO</t>
-  </si>
-  <si>
-    <t>PANTOJA</t>
-  </si>
-  <si>
-    <t>RAMOS</t>
-  </si>
-  <si>
-    <t>ROMAN</t>
-  </si>
-  <si>
-    <t>YOPIHUA</t>
-  </si>
-  <si>
-    <t>IGNACIO</t>
-  </si>
-  <si>
-    <t>APALE</t>
-  </si>
-  <si>
-    <t>MANCILLA</t>
-  </si>
-  <si>
-    <t>TZOYONTLE</t>
-  </si>
-  <si>
-    <t>ZEPAHUA</t>
-  </si>
-  <si>
-    <t>MARTINEZ</t>
-  </si>
-  <si>
-    <t>PERALTA</t>
-  </si>
-  <si>
-    <t>APOLINAR</t>
-  </si>
-  <si>
-    <t>JUAREZ</t>
-  </si>
-  <si>
-    <t>JOSE MANUEL</t>
-  </si>
-  <si>
-    <t>BRENDA IVETH</t>
-  </si>
-  <si>
-    <t>GUADALUPE</t>
-  </si>
-  <si>
-    <t>DARIO</t>
-  </si>
-  <si>
-    <t>ABEL DAMIAN</t>
-  </si>
-  <si>
-    <t>MARIA JOSE</t>
-  </si>
-  <si>
-    <t>MONSERRAT</t>
-  </si>
-  <si>
-    <t>ANGELL DAYANI</t>
-  </si>
-  <si>
-    <t>JOSUE SAMUEL</t>
-  </si>
-  <si>
-    <t>ALAN MIGUEL</t>
-  </si>
-  <si>
-    <t>YAZMIN ISABEL</t>
-  </si>
-  <si>
-    <t>ARIANA GUADALUPE</t>
-  </si>
-  <si>
-    <t>ALEXANDRO</t>
-  </si>
-  <si>
-    <t>CARLA DANIELA</t>
-  </si>
-  <si>
-    <t>KRISTAL</t>
   </si>
 </sst>
 </file>
@@ -891,13 +891,13 @@
         <v>-1</v>
       </c>
       <c r="J4">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K4">
         <v>-1</v>
       </c>
       <c r="L4">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M4">
         <v>-1</v>
@@ -950,13 +950,13 @@
         <v>-1</v>
       </c>
       <c r="J5">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K5">
         <v>-1</v>
       </c>
       <c r="L5">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M5">
         <v>-1</v>
@@ -997,7 +997,7 @@
         <v>9</v>
       </c>
       <c r="F6">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G6">
         <v>6</v>
@@ -1009,7 +1009,7 @@
         <v>-1</v>
       </c>
       <c r="J6">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K6">
         <v>-1</v>
@@ -1068,13 +1068,13 @@
         <v>-1</v>
       </c>
       <c r="J7">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K7">
         <v>-1</v>
       </c>
       <c r="L7">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M7">
         <v>-1</v>
@@ -1115,7 +1115,7 @@
         <v>8</v>
       </c>
       <c r="F8">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G8">
         <v>8</v>
@@ -1127,13 +1127,13 @@
         <v>-1</v>
       </c>
       <c r="J8">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K8">
         <v>-1</v>
       </c>
       <c r="L8">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M8">
         <v>-1</v>
@@ -1186,13 +1186,13 @@
         <v>-1</v>
       </c>
       <c r="J9">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K9">
         <v>-1</v>
       </c>
       <c r="L9">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M9">
         <v>-1</v>
@@ -1245,13 +1245,13 @@
         <v>-1</v>
       </c>
       <c r="J10">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K10">
         <v>-1</v>
       </c>
       <c r="L10">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M10">
         <v>-1</v>
@@ -1304,13 +1304,13 @@
         <v>-1</v>
       </c>
       <c r="J11">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K11">
         <v>-1</v>
       </c>
       <c r="L11">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M11">
         <v>-1</v>
@@ -1363,13 +1363,13 @@
         <v>-1</v>
       </c>
       <c r="J12">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K12">
         <v>-1</v>
       </c>
       <c r="L12">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M12">
         <v>-1</v>
@@ -1422,13 +1422,13 @@
         <v>-1</v>
       </c>
       <c r="J13">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K13">
         <v>-1</v>
       </c>
       <c r="L13">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M13">
         <v>-1</v>
@@ -1481,7 +1481,7 @@
         <v>-1</v>
       </c>
       <c r="J14">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K14">
         <v>-1</v>
@@ -1540,13 +1540,13 @@
         <v>-1</v>
       </c>
       <c r="J15">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K15">
         <v>-1</v>
       </c>
       <c r="L15">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M15">
         <v>-1</v>
@@ -1599,13 +1599,13 @@
         <v>-1</v>
       </c>
       <c r="J16">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K16">
         <v>-1</v>
       </c>
       <c r="L16">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M16">
         <v>-1</v>
@@ -1658,13 +1658,13 @@
         <v>-1</v>
       </c>
       <c r="J17">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K17">
         <v>-1</v>
       </c>
       <c r="L17">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M17">
         <v>-1</v>
@@ -1717,13 +1717,13 @@
         <v>-1</v>
       </c>
       <c r="J18">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K18">
         <v>-1</v>
       </c>
       <c r="L18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M18">
         <v>-1</v>
@@ -1776,13 +1776,13 @@
         <v>-1</v>
       </c>
       <c r="J19">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K19">
         <v>-1</v>
       </c>
       <c r="L19">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M19">
         <v>-1</v>
@@ -1835,13 +1835,13 @@
         <v>-1</v>
       </c>
       <c r="J20">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K20">
         <v>-1</v>
       </c>
       <c r="L20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M20">
         <v>-1</v>
@@ -1894,7 +1894,7 @@
         <v>-1</v>
       </c>
       <c r="J21">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K21">
         <v>-1</v>
@@ -1953,13 +1953,13 @@
         <v>-1</v>
       </c>
       <c r="J22">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K22">
         <v>-1</v>
       </c>
       <c r="L22">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M22">
         <v>-1</v>
@@ -2012,13 +2012,13 @@
         <v>-1</v>
       </c>
       <c r="J23">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K23">
         <v>-1</v>
       </c>
       <c r="L23">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M23">
         <v>-1</v>
@@ -2059,7 +2059,7 @@
         <v>7</v>
       </c>
       <c r="F24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G24">
         <v>8</v>
@@ -2071,13 +2071,13 @@
         <v>-1</v>
       </c>
       <c r="J24">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K24">
         <v>-1</v>
       </c>
       <c r="L24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M24">
         <v>-1</v>
@@ -2118,7 +2118,7 @@
         <v>-1</v>
       </c>
       <c r="F25">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="G25">
         <v>5</v>
@@ -2130,13 +2130,13 @@
         <v>-1</v>
       </c>
       <c r="J25">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K25">
         <v>-1</v>
       </c>
       <c r="L25">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M25">
         <v>-1</v>
@@ -2189,13 +2189,13 @@
         <v>-1</v>
       </c>
       <c r="J26">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K26">
         <v>-1</v>
       </c>
       <c r="L26">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M26">
         <v>-1</v>
@@ -2236,7 +2236,7 @@
         <v>6</v>
       </c>
       <c r="F27">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G27">
         <v>7</v>
@@ -2248,13 +2248,13 @@
         <v>-1</v>
       </c>
       <c r="J27">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K27">
         <v>-1</v>
       </c>
       <c r="L27">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M27">
         <v>-1</v>
@@ -2307,13 +2307,13 @@
         <v>-1</v>
       </c>
       <c r="J28">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K28">
         <v>-1</v>
       </c>
       <c r="L28">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M28">
         <v>-1</v>
@@ -2354,7 +2354,7 @@
         <v>-1</v>
       </c>
       <c r="F29">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G29">
         <v>8</v>
@@ -2366,13 +2366,13 @@
         <v>-1</v>
       </c>
       <c r="J29">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K29">
         <v>-1</v>
       </c>
       <c r="L29">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M29">
         <v>-1</v>
@@ -2425,7 +2425,7 @@
         <v>-1</v>
       </c>
       <c r="J30">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K30">
         <v>-1</v>
@@ -2484,13 +2484,13 @@
         <v>-1</v>
       </c>
       <c r="J31">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K31">
         <v>-1</v>
       </c>
       <c r="L31">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M31">
         <v>-1</v>
@@ -2569,7 +2569,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>48</v>
@@ -2578,13 +2578,13 @@
         <v>28</v>
       </c>
       <c r="D2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>67.86</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -2593,15 +2593,15 @@
         <v>8.199999999999999</v>
       </c>
       <c r="I2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J2">
-        <v>32.14</v>
+        <v>28.57</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>49</v>
@@ -2610,25 +2610,25 @@
         <v>28</v>
       </c>
       <c r="D3">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>71.43000000000001</v>
+        <v>78.56999999999999</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>10.71</v>
       </c>
       <c r="H3">
-        <v>8.199999999999999</v>
+        <v>7.5</v>
       </c>
       <c r="I3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J3">
-        <v>28.57</v>
+        <v>10.71</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2766,7 +2766,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F117"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2798,39 +2798,39 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>18330051920390</v>
+        <v>18330051920085</v>
       </c>
       <c r="B2" t="s">
         <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="D2" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>18330051920088</v>
+        <v>18330051920085</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="D3" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F3" t="s">
         <v>48</v>
@@ -2838,176 +2838,176 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>18330051920090</v>
+        <v>18330051920085</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="D4" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>17330051920334</v>
+        <v>18330051920085</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="D5" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="E5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>17330051920334</v>
+        <v>18330051920390</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="D6" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="E6" t="s">
         <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>17330051920334</v>
+        <v>18330051920390</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C7" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="D7" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>17330051920334</v>
+        <v>18330051920390</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="D8" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="E8" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>18330051920105</v>
+        <v>18330051920390</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C9" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="D9" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="E9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>18330051920108</v>
+        <v>18330051920089</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C10" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="D10" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="E10" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>18330051920108</v>
+        <v>18330051920089</v>
       </c>
       <c r="B11" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C11" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="D11" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="E11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>18330051920108</v>
+        <v>18330051920089</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C12" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="D12" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="E12" t="s">
         <v>4</v>
@@ -3018,19 +3018,19 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>18330051920108</v>
+        <v>18330051920089</v>
       </c>
       <c r="B13" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C13" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="D13" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="E13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F13" t="s">
         <v>48</v>
@@ -3038,79 +3038,79 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>18330051920185</v>
+        <v>18330051920088</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C14" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="D14" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="E14" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>18330051920188</v>
+        <v>18330051920088</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C15" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="D15" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="E15" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>18330051920188</v>
+        <v>18330051920088</v>
       </c>
       <c r="B16" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C16" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="D16" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="E16" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F16" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>18330051920188</v>
+        <v>18330051920088</v>
       </c>
       <c r="B17" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C17" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="D17" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="E17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F17" t="s">
         <v>49</v>
@@ -3118,79 +3118,79 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>18330051920190</v>
+        <v>18330051920088</v>
       </c>
       <c r="B18" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C18" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="D18" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="E18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F18" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>18330051920391</v>
+        <v>18330051920090</v>
       </c>
       <c r="B19" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C19" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="D19" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="E19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F19" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>18330051920391</v>
+        <v>18330051920090</v>
       </c>
       <c r="B20" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C20" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="D20" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="E20" t="s">
         <v>7</v>
       </c>
       <c r="F20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>18330051920391</v>
+        <v>18330051920090</v>
       </c>
       <c r="B21" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C21" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="D21" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="E21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F21" t="s">
         <v>50</v>
@@ -3198,56 +3198,56 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>17330051920264</v>
+        <v>18330051920090</v>
       </c>
       <c r="B22" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C22" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="D22" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="E22" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F22" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>17330051920264</v>
+        <v>18330051920446</v>
       </c>
       <c r="B23" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C23" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="D23" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="E23" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F23" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>17330051920264</v>
+        <v>18330051920446</v>
       </c>
       <c r="B24" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C24" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="D24" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="E24" t="s">
         <v>5</v>
@@ -3258,42 +3258,1862 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>17330051920264</v>
+        <v>18330051920446</v>
       </c>
       <c r="B25" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C25" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="D25" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="E25" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F25" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>18330051920110</v>
+        <v>18330051920446</v>
       </c>
       <c r="B26" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C26" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="D26" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="E26" t="s">
         <v>7</v>
       </c>
       <c r="F26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27">
+        <v>18330051920092</v>
+      </c>
+      <c r="B27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27" t="s">
+        <v>108</v>
+      </c>
+      <c r="E27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28">
+        <v>18330051920092</v>
+      </c>
+      <c r="B28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" t="s">
+        <v>108</v>
+      </c>
+      <c r="E28" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29">
+        <v>18330051920092</v>
+      </c>
+      <c r="B29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29" t="s">
+        <v>108</v>
+      </c>
+      <c r="E29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30">
+        <v>18330051920092</v>
+      </c>
+      <c r="B30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" t="s">
+        <v>88</v>
+      </c>
+      <c r="D30" t="s">
+        <v>108</v>
+      </c>
+      <c r="E30" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31">
+        <v>18330051920093</v>
+      </c>
+      <c r="B31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" t="s">
+        <v>89</v>
+      </c>
+      <c r="D31" t="s">
+        <v>109</v>
+      </c>
+      <c r="E31" t="s">
+        <v>5</v>
+      </c>
+      <c r="F31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32">
+        <v>18330051920093</v>
+      </c>
+      <c r="B32" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" t="s">
+        <v>89</v>
+      </c>
+      <c r="D32" t="s">
+        <v>109</v>
+      </c>
+      <c r="E32" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33">
+        <v>18330051920093</v>
+      </c>
+      <c r="B33" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" t="s">
+        <v>89</v>
+      </c>
+      <c r="D33" t="s">
+        <v>109</v>
+      </c>
+      <c r="E33" t="s">
+        <v>4</v>
+      </c>
+      <c r="F33" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34">
+        <v>18330051920093</v>
+      </c>
+      <c r="B34" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" t="s">
+        <v>89</v>
+      </c>
+      <c r="D34" t="s">
+        <v>109</v>
+      </c>
+      <c r="E34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35">
+        <v>18330051920095</v>
+      </c>
+      <c r="B35" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" t="s">
+        <v>90</v>
+      </c>
+      <c r="D35" t="s">
+        <v>110</v>
+      </c>
+      <c r="E35" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36">
+        <v>18330051920095</v>
+      </c>
+      <c r="B36" t="s">
+        <v>64</v>
+      </c>
+      <c r="C36" t="s">
+        <v>90</v>
+      </c>
+      <c r="D36" t="s">
+        <v>110</v>
+      </c>
+      <c r="E36" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37">
+        <v>18330051920095</v>
+      </c>
+      <c r="B37" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" t="s">
+        <v>90</v>
+      </c>
+      <c r="D37" t="s">
+        <v>110</v>
+      </c>
+      <c r="E37" t="s">
+        <v>5</v>
+      </c>
+      <c r="F37" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38">
+        <v>18330051920095</v>
+      </c>
+      <c r="B38" t="s">
+        <v>64</v>
+      </c>
+      <c r="C38" t="s">
+        <v>90</v>
+      </c>
+      <c r="D38" t="s">
+        <v>110</v>
+      </c>
+      <c r="E38" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39">
+        <v>18330051920096</v>
+      </c>
+      <c r="B39" t="s">
+        <v>64</v>
+      </c>
+      <c r="C39" t="s">
+        <v>91</v>
+      </c>
+      <c r="D39" t="s">
+        <v>111</v>
+      </c>
+      <c r="E39" t="s">
+        <v>4</v>
+      </c>
+      <c r="F39" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40">
+        <v>18330051920096</v>
+      </c>
+      <c r="B40" t="s">
+        <v>64</v>
+      </c>
+      <c r="C40" t="s">
+        <v>91</v>
+      </c>
+      <c r="D40" t="s">
+        <v>111</v>
+      </c>
+      <c r="E40" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41">
+        <v>18330051920096</v>
+      </c>
+      <c r="B41" t="s">
+        <v>64</v>
+      </c>
+      <c r="C41" t="s">
+        <v>91</v>
+      </c>
+      <c r="D41" t="s">
+        <v>111</v>
+      </c>
+      <c r="E41" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42">
+        <v>18330051920096</v>
+      </c>
+      <c r="B42" t="s">
+        <v>64</v>
+      </c>
+      <c r="C42" t="s">
+        <v>91</v>
+      </c>
+      <c r="D42" t="s">
+        <v>111</v>
+      </c>
+      <c r="E42" t="s">
+        <v>5</v>
+      </c>
+      <c r="F42" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43">
+        <v>17330051920334</v>
+      </c>
+      <c r="B43" t="s">
+        <v>65</v>
+      </c>
+      <c r="C43" t="s">
+        <v>92</v>
+      </c>
+      <c r="D43" t="s">
+        <v>112</v>
+      </c>
+      <c r="E43" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44">
+        <v>17330051920334</v>
+      </c>
+      <c r="B44" t="s">
+        <v>65</v>
+      </c>
+      <c r="C44" t="s">
+        <v>92</v>
+      </c>
+      <c r="D44" t="s">
+        <v>112</v>
+      </c>
+      <c r="E44" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45">
+        <v>17330051920334</v>
+      </c>
+      <c r="B45" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" t="s">
+        <v>92</v>
+      </c>
+      <c r="D45" t="s">
+        <v>112</v>
+      </c>
+      <c r="E45" t="s">
+        <v>5</v>
+      </c>
+      <c r="F45" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46">
+        <v>17330051920334</v>
+      </c>
+      <c r="B46" t="s">
+        <v>65</v>
+      </c>
+      <c r="C46" t="s">
+        <v>92</v>
+      </c>
+      <c r="D46" t="s">
+        <v>112</v>
+      </c>
+      <c r="E46" t="s">
+        <v>7</v>
+      </c>
+      <c r="F46" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47">
+        <v>17330051920334</v>
+      </c>
+      <c r="B47" t="s">
+        <v>65</v>
+      </c>
+      <c r="C47" t="s">
+        <v>92</v>
+      </c>
+      <c r="D47" t="s">
+        <v>112</v>
+      </c>
+      <c r="E47" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48">
+        <v>18330051920100</v>
+      </c>
+      <c r="B48" t="s">
+        <v>66</v>
+      </c>
+      <c r="C48" t="s">
+        <v>93</v>
+      </c>
+      <c r="D48" t="s">
+        <v>113</v>
+      </c>
+      <c r="E48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F48" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49">
+        <v>18330051920100</v>
+      </c>
+      <c r="B49" t="s">
+        <v>66</v>
+      </c>
+      <c r="C49" t="s">
+        <v>93</v>
+      </c>
+      <c r="D49" t="s">
+        <v>113</v>
+      </c>
+      <c r="E49" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50">
+        <v>18330051920100</v>
+      </c>
+      <c r="B50" t="s">
+        <v>66</v>
+      </c>
+      <c r="C50" t="s">
+        <v>93</v>
+      </c>
+      <c r="D50" t="s">
+        <v>113</v>
+      </c>
+      <c r="E50" t="s">
+        <v>5</v>
+      </c>
+      <c r="F50" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51">
+        <v>18330051920100</v>
+      </c>
+      <c r="B51" t="s">
+        <v>66</v>
+      </c>
+      <c r="C51" t="s">
+        <v>93</v>
+      </c>
+      <c r="D51" t="s">
+        <v>113</v>
+      </c>
+      <c r="E51" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52">
+        <v>18330051920101</v>
+      </c>
+      <c r="B52" t="s">
+        <v>67</v>
+      </c>
+      <c r="C52" t="s">
+        <v>94</v>
+      </c>
+      <c r="D52" t="s">
+        <v>114</v>
+      </c>
+      <c r="E52" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53">
+        <v>18330051920101</v>
+      </c>
+      <c r="B53" t="s">
+        <v>67</v>
+      </c>
+      <c r="C53" t="s">
+        <v>94</v>
+      </c>
+      <c r="D53" t="s">
+        <v>114</v>
+      </c>
+      <c r="E53" t="s">
+        <v>4</v>
+      </c>
+      <c r="F53" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54">
+        <v>18330051920101</v>
+      </c>
+      <c r="B54" t="s">
+        <v>67</v>
+      </c>
+      <c r="C54" t="s">
+        <v>94</v>
+      </c>
+      <c r="D54" t="s">
+        <v>114</v>
+      </c>
+      <c r="E54" t="s">
+        <v>7</v>
+      </c>
+      <c r="F54" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55">
+        <v>18330051920101</v>
+      </c>
+      <c r="B55" t="s">
+        <v>67</v>
+      </c>
+      <c r="C55" t="s">
+        <v>94</v>
+      </c>
+      <c r="D55" t="s">
+        <v>114</v>
+      </c>
+      <c r="E55" t="s">
+        <v>9</v>
+      </c>
+      <c r="F55" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56">
+        <v>18330051920103</v>
+      </c>
+      <c r="B56" t="s">
+        <v>68</v>
+      </c>
+      <c r="C56" t="s">
+        <v>68</v>
+      </c>
+      <c r="D56" t="s">
+        <v>115</v>
+      </c>
+      <c r="E56" t="s">
+        <v>9</v>
+      </c>
+      <c r="F56" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57">
+        <v>18330051920103</v>
+      </c>
+      <c r="B57" t="s">
+        <v>68</v>
+      </c>
+      <c r="C57" t="s">
+        <v>68</v>
+      </c>
+      <c r="D57" t="s">
+        <v>115</v>
+      </c>
+      <c r="E57" t="s">
+        <v>4</v>
+      </c>
+      <c r="F57" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58">
+        <v>18330051920103</v>
+      </c>
+      <c r="B58" t="s">
+        <v>68</v>
+      </c>
+      <c r="C58" t="s">
+        <v>68</v>
+      </c>
+      <c r="D58" t="s">
+        <v>115</v>
+      </c>
+      <c r="E58" t="s">
+        <v>7</v>
+      </c>
+      <c r="F58" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59">
+        <v>18330051920103</v>
+      </c>
+      <c r="B59" t="s">
+        <v>68</v>
+      </c>
+      <c r="C59" t="s">
+        <v>68</v>
+      </c>
+      <c r="D59" t="s">
+        <v>115</v>
+      </c>
+      <c r="E59" t="s">
+        <v>5</v>
+      </c>
+      <c r="F59" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60">
+        <v>18330051920105</v>
+      </c>
+      <c r="B60" t="s">
+        <v>69</v>
+      </c>
+      <c r="C60" t="s">
+        <v>94</v>
+      </c>
+      <c r="D60" t="s">
+        <v>107</v>
+      </c>
+      <c r="E60" t="s">
+        <v>4</v>
+      </c>
+      <c r="F60" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61">
+        <v>18330051920105</v>
+      </c>
+      <c r="B61" t="s">
+        <v>69</v>
+      </c>
+      <c r="C61" t="s">
+        <v>94</v>
+      </c>
+      <c r="D61" t="s">
+        <v>107</v>
+      </c>
+      <c r="E61" t="s">
+        <v>7</v>
+      </c>
+      <c r="F61" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62">
+        <v>18330051920105</v>
+      </c>
+      <c r="B62" t="s">
+        <v>69</v>
+      </c>
+      <c r="C62" t="s">
+        <v>94</v>
+      </c>
+      <c r="D62" t="s">
+        <v>107</v>
+      </c>
+      <c r="E62" t="s">
+        <v>5</v>
+      </c>
+      <c r="F62" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63">
+        <v>18330051920105</v>
+      </c>
+      <c r="B63" t="s">
+        <v>69</v>
+      </c>
+      <c r="C63" t="s">
+        <v>94</v>
+      </c>
+      <c r="D63" t="s">
+        <v>107</v>
+      </c>
+      <c r="E63" t="s">
+        <v>9</v>
+      </c>
+      <c r="F63" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64">
+        <v>18330051920448</v>
+      </c>
+      <c r="B64" t="s">
+        <v>70</v>
+      </c>
+      <c r="C64" t="s">
+        <v>64</v>
+      </c>
+      <c r="D64" t="s">
+        <v>116</v>
+      </c>
+      <c r="E64" t="s">
+        <v>7</v>
+      </c>
+      <c r="F64" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65">
+        <v>18330051920448</v>
+      </c>
+      <c r="B65" t="s">
+        <v>70</v>
+      </c>
+      <c r="C65" t="s">
+        <v>64</v>
+      </c>
+      <c r="D65" t="s">
+        <v>116</v>
+      </c>
+      <c r="E65" t="s">
+        <v>5</v>
+      </c>
+      <c r="F65" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66">
+        <v>18330051920448</v>
+      </c>
+      <c r="B66" t="s">
+        <v>70</v>
+      </c>
+      <c r="C66" t="s">
+        <v>64</v>
+      </c>
+      <c r="D66" t="s">
+        <v>116</v>
+      </c>
+      <c r="E66" t="s">
+        <v>4</v>
+      </c>
+      <c r="F66" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67">
+        <v>18330051920448</v>
+      </c>
+      <c r="B67" t="s">
+        <v>70</v>
+      </c>
+      <c r="C67" t="s">
+        <v>64</v>
+      </c>
+      <c r="D67" t="s">
+        <v>116</v>
+      </c>
+      <c r="E67" t="s">
+        <v>9</v>
+      </c>
+      <c r="F67" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68">
+        <v>18330051920106</v>
+      </c>
+      <c r="B68" t="s">
+        <v>71</v>
+      </c>
+      <c r="C68" t="s">
+        <v>94</v>
+      </c>
+      <c r="D68" t="s">
+        <v>117</v>
+      </c>
+      <c r="E68" t="s">
+        <v>9</v>
+      </c>
+      <c r="F68" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69">
+        <v>18330051920106</v>
+      </c>
+      <c r="B69" t="s">
+        <v>71</v>
+      </c>
+      <c r="C69" t="s">
+        <v>94</v>
+      </c>
+      <c r="D69" t="s">
+        <v>117</v>
+      </c>
+      <c r="E69" t="s">
+        <v>4</v>
+      </c>
+      <c r="F69" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70">
+        <v>18330051920106</v>
+      </c>
+      <c r="B70" t="s">
+        <v>71</v>
+      </c>
+      <c r="C70" t="s">
+        <v>94</v>
+      </c>
+      <c r="D70" t="s">
+        <v>117</v>
+      </c>
+      <c r="E70" t="s">
+        <v>5</v>
+      </c>
+      <c r="F70" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71">
+        <v>18330051920106</v>
+      </c>
+      <c r="B71" t="s">
+        <v>71</v>
+      </c>
+      <c r="C71" t="s">
+        <v>94</v>
+      </c>
+      <c r="D71" t="s">
+        <v>117</v>
+      </c>
+      <c r="E71" t="s">
+        <v>7</v>
+      </c>
+      <c r="F71" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72">
+        <v>18330051920108</v>
+      </c>
+      <c r="B72" t="s">
+        <v>72</v>
+      </c>
+      <c r="C72" t="s">
+        <v>95</v>
+      </c>
+      <c r="D72" t="s">
+        <v>118</v>
+      </c>
+      <c r="E72" t="s">
+        <v>9</v>
+      </c>
+      <c r="F72" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73">
+        <v>18330051920108</v>
+      </c>
+      <c r="B73" t="s">
+        <v>72</v>
+      </c>
+      <c r="C73" t="s">
+        <v>95</v>
+      </c>
+      <c r="D73" t="s">
+        <v>118</v>
+      </c>
+      <c r="E73" t="s">
+        <v>7</v>
+      </c>
+      <c r="F73" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74">
+        <v>18330051920108</v>
+      </c>
+      <c r="B74" t="s">
+        <v>72</v>
+      </c>
+      <c r="C74" t="s">
+        <v>95</v>
+      </c>
+      <c r="D74" t="s">
+        <v>118</v>
+      </c>
+      <c r="E74" t="s">
+        <v>4</v>
+      </c>
+      <c r="F74" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75">
+        <v>18330051920108</v>
+      </c>
+      <c r="B75" t="s">
+        <v>72</v>
+      </c>
+      <c r="C75" t="s">
+        <v>95</v>
+      </c>
+      <c r="D75" t="s">
+        <v>118</v>
+      </c>
+      <c r="E75" t="s">
+        <v>8</v>
+      </c>
+      <c r="F75" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76">
+        <v>18330051920108</v>
+      </c>
+      <c r="B76" t="s">
+        <v>72</v>
+      </c>
+      <c r="C76" t="s">
+        <v>95</v>
+      </c>
+      <c r="D76" t="s">
+        <v>118</v>
+      </c>
+      <c r="E76" t="s">
+        <v>5</v>
+      </c>
+      <c r="F76" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77">
+        <v>18330051920109</v>
+      </c>
+      <c r="B77" t="s">
+        <v>73</v>
+      </c>
+      <c r="C77" t="s">
+        <v>91</v>
+      </c>
+      <c r="D77" t="s">
+        <v>119</v>
+      </c>
+      <c r="E77" t="s">
+        <v>9</v>
+      </c>
+      <c r="F77" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78">
+        <v>18330051920109</v>
+      </c>
+      <c r="B78" t="s">
+        <v>73</v>
+      </c>
+      <c r="C78" t="s">
+        <v>91</v>
+      </c>
+      <c r="D78" t="s">
+        <v>119</v>
+      </c>
+      <c r="E78" t="s">
+        <v>7</v>
+      </c>
+      <c r="F78" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79">
+        <v>18330051920109</v>
+      </c>
+      <c r="B79" t="s">
+        <v>73</v>
+      </c>
+      <c r="C79" t="s">
+        <v>91</v>
+      </c>
+      <c r="D79" t="s">
+        <v>119</v>
+      </c>
+      <c r="E79" t="s">
+        <v>5</v>
+      </c>
+      <c r="F79" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80">
+        <v>18330051920109</v>
+      </c>
+      <c r="B80" t="s">
+        <v>73</v>
+      </c>
+      <c r="C80" t="s">
+        <v>91</v>
+      </c>
+      <c r="D80" t="s">
+        <v>119</v>
+      </c>
+      <c r="E80" t="s">
+        <v>4</v>
+      </c>
+      <c r="F80" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81">
+        <v>18330051920183</v>
+      </c>
+      <c r="B81" t="s">
+        <v>74</v>
+      </c>
+      <c r="C81" t="s">
+        <v>96</v>
+      </c>
+      <c r="D81" t="s">
+        <v>120</v>
+      </c>
+      <c r="E81" t="s">
+        <v>4</v>
+      </c>
+      <c r="F81" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82">
+        <v>18330051920183</v>
+      </c>
+      <c r="B82" t="s">
+        <v>74</v>
+      </c>
+      <c r="C82" t="s">
+        <v>96</v>
+      </c>
+      <c r="D82" t="s">
+        <v>120</v>
+      </c>
+      <c r="E82" t="s">
+        <v>5</v>
+      </c>
+      <c r="F82" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83">
+        <v>18330051920183</v>
+      </c>
+      <c r="B83" t="s">
+        <v>74</v>
+      </c>
+      <c r="C83" t="s">
+        <v>96</v>
+      </c>
+      <c r="D83" t="s">
+        <v>120</v>
+      </c>
+      <c r="E83" t="s">
+        <v>9</v>
+      </c>
+      <c r="F83" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84">
+        <v>18330051920183</v>
+      </c>
+      <c r="B84" t="s">
+        <v>74</v>
+      </c>
+      <c r="C84" t="s">
+        <v>96</v>
+      </c>
+      <c r="D84" t="s">
+        <v>120</v>
+      </c>
+      <c r="E84" t="s">
+        <v>7</v>
+      </c>
+      <c r="F84" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85">
+        <v>18330051920185</v>
+      </c>
+      <c r="B85" t="s">
+        <v>75</v>
+      </c>
+      <c r="C85" t="s">
+        <v>97</v>
+      </c>
+      <c r="D85" t="s">
+        <v>121</v>
+      </c>
+      <c r="E85" t="s">
+        <v>5</v>
+      </c>
+      <c r="F85" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86">
+        <v>18330051920185</v>
+      </c>
+      <c r="B86" t="s">
+        <v>75</v>
+      </c>
+      <c r="C86" t="s">
+        <v>97</v>
+      </c>
+      <c r="D86" t="s">
+        <v>121</v>
+      </c>
+      <c r="E86" t="s">
+        <v>9</v>
+      </c>
+      <c r="F86" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87">
+        <v>18330051920185</v>
+      </c>
+      <c r="B87" t="s">
+        <v>75</v>
+      </c>
+      <c r="C87" t="s">
+        <v>97</v>
+      </c>
+      <c r="D87" t="s">
+        <v>121</v>
+      </c>
+      <c r="E87" t="s">
+        <v>4</v>
+      </c>
+      <c r="F87" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88">
+        <v>18330051920185</v>
+      </c>
+      <c r="B88" t="s">
+        <v>75</v>
+      </c>
+      <c r="C88" t="s">
+        <v>97</v>
+      </c>
+      <c r="D88" t="s">
+        <v>121</v>
+      </c>
+      <c r="E88" t="s">
+        <v>7</v>
+      </c>
+      <c r="F88" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89">
+        <v>18330051920188</v>
+      </c>
+      <c r="B89" t="s">
+        <v>76</v>
+      </c>
+      <c r="C89" t="s">
+        <v>98</v>
+      </c>
+      <c r="D89" t="s">
+        <v>122</v>
+      </c>
+      <c r="E89" t="s">
+        <v>5</v>
+      </c>
+      <c r="F89" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90">
+        <v>18330051920188</v>
+      </c>
+      <c r="B90" t="s">
+        <v>76</v>
+      </c>
+      <c r="C90" t="s">
+        <v>98</v>
+      </c>
+      <c r="D90" t="s">
+        <v>122</v>
+      </c>
+      <c r="E90" t="s">
+        <v>4</v>
+      </c>
+      <c r="F90" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91">
+        <v>18330051920188</v>
+      </c>
+      <c r="B91" t="s">
+        <v>76</v>
+      </c>
+      <c r="C91" t="s">
+        <v>98</v>
+      </c>
+      <c r="D91" t="s">
+        <v>122</v>
+      </c>
+      <c r="E91" t="s">
+        <v>7</v>
+      </c>
+      <c r="F91" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92">
+        <v>18330051920188</v>
+      </c>
+      <c r="B92" t="s">
+        <v>76</v>
+      </c>
+      <c r="C92" t="s">
+        <v>98</v>
+      </c>
+      <c r="D92" t="s">
+        <v>122</v>
+      </c>
+      <c r="E92" t="s">
+        <v>9</v>
+      </c>
+      <c r="F92" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93">
+        <v>18330051920190</v>
+      </c>
+      <c r="B93" t="s">
+        <v>77</v>
+      </c>
+      <c r="C93" t="s">
+        <v>99</v>
+      </c>
+      <c r="D93" t="s">
+        <v>123</v>
+      </c>
+      <c r="E93" t="s">
+        <v>7</v>
+      </c>
+      <c r="F93" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94">
+        <v>18330051920190</v>
+      </c>
+      <c r="B94" t="s">
+        <v>77</v>
+      </c>
+      <c r="C94" t="s">
+        <v>99</v>
+      </c>
+      <c r="D94" t="s">
+        <v>123</v>
+      </c>
+      <c r="E94" t="s">
+        <v>4</v>
+      </c>
+      <c r="F94" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95">
+        <v>18330051920190</v>
+      </c>
+      <c r="B95" t="s">
+        <v>77</v>
+      </c>
+      <c r="C95" t="s">
+        <v>99</v>
+      </c>
+      <c r="D95" t="s">
+        <v>123</v>
+      </c>
+      <c r="E95" t="s">
+        <v>9</v>
+      </c>
+      <c r="F95" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96">
+        <v>18330051920190</v>
+      </c>
+      <c r="B96" t="s">
+        <v>77</v>
+      </c>
+      <c r="C96" t="s">
+        <v>99</v>
+      </c>
+      <c r="D96" t="s">
+        <v>123</v>
+      </c>
+      <c r="E96" t="s">
+        <v>5</v>
+      </c>
+      <c r="F96" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97">
+        <v>18330051920189</v>
+      </c>
+      <c r="B97" t="s">
+        <v>77</v>
+      </c>
+      <c r="C97" t="s">
+        <v>99</v>
+      </c>
+      <c r="D97" t="s">
+        <v>124</v>
+      </c>
+      <c r="E97" t="s">
+        <v>7</v>
+      </c>
+      <c r="F97" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98">
+        <v>18330051920189</v>
+      </c>
+      <c r="B98" t="s">
+        <v>77</v>
+      </c>
+      <c r="C98" t="s">
+        <v>99</v>
+      </c>
+      <c r="D98" t="s">
+        <v>124</v>
+      </c>
+      <c r="E98" t="s">
+        <v>9</v>
+      </c>
+      <c r="F98" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99">
+        <v>18330051920189</v>
+      </c>
+      <c r="B99" t="s">
+        <v>77</v>
+      </c>
+      <c r="C99" t="s">
+        <v>99</v>
+      </c>
+      <c r="D99" t="s">
+        <v>124</v>
+      </c>
+      <c r="E99" t="s">
+        <v>4</v>
+      </c>
+      <c r="F99" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100">
+        <v>18330051920189</v>
+      </c>
+      <c r="B100" t="s">
+        <v>77</v>
+      </c>
+      <c r="C100" t="s">
+        <v>99</v>
+      </c>
+      <c r="D100" t="s">
+        <v>124</v>
+      </c>
+      <c r="E100" t="s">
+        <v>5</v>
+      </c>
+      <c r="F100" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101">
+        <v>18330051920191</v>
+      </c>
+      <c r="B101" t="s">
+        <v>78</v>
+      </c>
+      <c r="C101" t="s">
+        <v>89</v>
+      </c>
+      <c r="D101" t="s">
+        <v>125</v>
+      </c>
+      <c r="E101" t="s">
+        <v>4</v>
+      </c>
+      <c r="F101" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102">
+        <v>18330051920191</v>
+      </c>
+      <c r="B102" t="s">
+        <v>78</v>
+      </c>
+      <c r="C102" t="s">
+        <v>89</v>
+      </c>
+      <c r="D102" t="s">
+        <v>125</v>
+      </c>
+      <c r="E102" t="s">
+        <v>9</v>
+      </c>
+      <c r="F102" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103">
+        <v>18330051920191</v>
+      </c>
+      <c r="B103" t="s">
+        <v>78</v>
+      </c>
+      <c r="C103" t="s">
+        <v>89</v>
+      </c>
+      <c r="D103" t="s">
+        <v>125</v>
+      </c>
+      <c r="E103" t="s">
+        <v>7</v>
+      </c>
+      <c r="F103" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104">
+        <v>18330051920191</v>
+      </c>
+      <c r="B104" t="s">
+        <v>78</v>
+      </c>
+      <c r="C104" t="s">
+        <v>89</v>
+      </c>
+      <c r="D104" t="s">
+        <v>125</v>
+      </c>
+      <c r="E104" t="s">
+        <v>5</v>
+      </c>
+      <c r="F104" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105">
+        <v>18330051920391</v>
+      </c>
+      <c r="B105" t="s">
+        <v>79</v>
+      </c>
+      <c r="C105" t="s">
+        <v>94</v>
+      </c>
+      <c r="D105" t="s">
+        <v>126</v>
+      </c>
+      <c r="E105" t="s">
+        <v>4</v>
+      </c>
+      <c r="F105" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106">
+        <v>18330051920391</v>
+      </c>
+      <c r="B106" t="s">
+        <v>79</v>
+      </c>
+      <c r="C106" t="s">
+        <v>94</v>
+      </c>
+      <c r="D106" t="s">
+        <v>126</v>
+      </c>
+      <c r="E106" t="s">
+        <v>5</v>
+      </c>
+      <c r="F106" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107">
+        <v>18330051920391</v>
+      </c>
+      <c r="B107" t="s">
+        <v>79</v>
+      </c>
+      <c r="C107" t="s">
+        <v>94</v>
+      </c>
+      <c r="D107" t="s">
+        <v>126</v>
+      </c>
+      <c r="E107" t="s">
+        <v>9</v>
+      </c>
+      <c r="F107" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108">
+        <v>18330051920391</v>
+      </c>
+      <c r="B108" t="s">
+        <v>79</v>
+      </c>
+      <c r="C108" t="s">
+        <v>94</v>
+      </c>
+      <c r="D108" t="s">
+        <v>126</v>
+      </c>
+      <c r="E108" t="s">
+        <v>7</v>
+      </c>
+      <c r="F108" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109">
+        <v>17330051920264</v>
+      </c>
+      <c r="B109" t="s">
+        <v>80</v>
+      </c>
+      <c r="C109" t="s">
+        <v>100</v>
+      </c>
+      <c r="D109" t="s">
+        <v>127</v>
+      </c>
+      <c r="E109" t="s">
+        <v>4</v>
+      </c>
+      <c r="F109" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110">
+        <v>17330051920264</v>
+      </c>
+      <c r="B110" t="s">
+        <v>80</v>
+      </c>
+      <c r="C110" t="s">
+        <v>100</v>
+      </c>
+      <c r="D110" t="s">
+        <v>127</v>
+      </c>
+      <c r="E110" t="s">
+        <v>5</v>
+      </c>
+      <c r="F110" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111">
+        <v>17330051920264</v>
+      </c>
+      <c r="B111" t="s">
+        <v>80</v>
+      </c>
+      <c r="C111" t="s">
+        <v>100</v>
+      </c>
+      <c r="D111" t="s">
+        <v>127</v>
+      </c>
+      <c r="E111" t="s">
+        <v>8</v>
+      </c>
+      <c r="F111" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112">
+        <v>17330051920264</v>
+      </c>
+      <c r="B112" t="s">
+        <v>80</v>
+      </c>
+      <c r="C112" t="s">
+        <v>100</v>
+      </c>
+      <c r="D112" t="s">
+        <v>127</v>
+      </c>
+      <c r="E112" t="s">
+        <v>9</v>
+      </c>
+      <c r="F112" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113">
+        <v>17330051920264</v>
+      </c>
+      <c r="B113" t="s">
+        <v>80</v>
+      </c>
+      <c r="C113" t="s">
+        <v>100</v>
+      </c>
+      <c r="D113" t="s">
+        <v>127</v>
+      </c>
+      <c r="E113" t="s">
+        <v>7</v>
+      </c>
+      <c r="F113" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114">
+        <v>18330051920110</v>
+      </c>
+      <c r="B114" t="s">
+        <v>81</v>
+      </c>
+      <c r="C114" t="s">
+        <v>101</v>
+      </c>
+      <c r="D114" t="s">
+        <v>128</v>
+      </c>
+      <c r="E114" t="s">
+        <v>4</v>
+      </c>
+      <c r="F114" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115">
+        <v>18330051920110</v>
+      </c>
+      <c r="B115" t="s">
+        <v>81</v>
+      </c>
+      <c r="C115" t="s">
+        <v>101</v>
+      </c>
+      <c r="D115" t="s">
+        <v>128</v>
+      </c>
+      <c r="E115" t="s">
+        <v>9</v>
+      </c>
+      <c r="F115" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116">
+        <v>18330051920110</v>
+      </c>
+      <c r="B116" t="s">
+        <v>81</v>
+      </c>
+      <c r="C116" t="s">
+        <v>101</v>
+      </c>
+      <c r="D116" t="s">
+        <v>128</v>
+      </c>
+      <c r="E116" t="s">
+        <v>5</v>
+      </c>
+      <c r="F116" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117">
+        <v>18330051920110</v>
+      </c>
+      <c r="B117" t="s">
+        <v>81</v>
+      </c>
+      <c r="C117" t="s">
+        <v>101</v>
+      </c>
+      <c r="D117" t="s">
+        <v>128</v>
+      </c>
+      <c r="E117" t="s">
+        <v>7</v>
+      </c>
+      <c r="F117" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -3335,13 +5155,13 @@
         <v>17330051920334</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="D2" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="E2">
         <v>4</v>
@@ -3352,13 +5172,13 @@
         <v>18330051920108</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="D3" t="s">
-        <v>85</v>
+        <v>118</v>
       </c>
       <c r="E3">
         <v>4</v>
@@ -3369,13 +5189,13 @@
         <v>17330051920264</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="C4" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="D4" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="E4">
         <v>4</v>
@@ -3386,16 +5206,16 @@
         <v>18330051920188</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="C5" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="D5" t="s">
-        <v>87</v>
+        <v>122</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3403,16 +5223,16 @@
         <v>18330051920391</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="C6" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="D6" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3423,10 +5243,10 @@
         <v>57</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="D7" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -3434,16 +5254,16 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>18330051920088</v>
+        <v>18330051920105</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="D8" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -3451,16 +5271,16 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>18330051920090</v>
+        <v>18330051920110</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="C9" t="s">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="D9" t="s">
-        <v>82</v>
+        <v>128</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -3468,84 +5288,84 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>18330051920105</v>
+        <v>18330051920085</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C10" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="D10" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>18330051920185</v>
+        <v>18330051920089</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C11" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="D11" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>18330051920190</v>
+        <v>18330051920088</v>
       </c>
       <c r="B12" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C12" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="D12" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>18330051920110</v>
+        <v>18330051920090</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C13" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="D13" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>18330051920085</v>
+        <v>18330051920446</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C14" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="D14" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -3553,16 +5373,16 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>18330051920089</v>
+        <v>18330051920092</v>
       </c>
       <c r="B15" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="C15" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="D15" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -3570,16 +5390,16 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>18330051920446</v>
+        <v>18330051920093</v>
       </c>
       <c r="B16" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="C16" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="D16" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -3587,16 +5407,16 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>18330051920092</v>
+        <v>18330051920095</v>
       </c>
       <c r="B17" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="C17" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="D17" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -3604,16 +5424,16 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>18330051920093</v>
+        <v>18330051920096</v>
       </c>
       <c r="B18" t="s">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="C18" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="D18" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -3621,16 +5441,16 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>18330051920095</v>
+        <v>18330051920100</v>
       </c>
       <c r="B19" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="C19" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="D19" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -3638,16 +5458,16 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>18330051920096</v>
+        <v>18330051920101</v>
       </c>
       <c r="B20" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="C20" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="D20" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -3655,16 +5475,16 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>18330051920100</v>
+        <v>18330051920103</v>
       </c>
       <c r="B21" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="C21" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="D21" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -3672,16 +5492,16 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>18330051920101</v>
+        <v>18330051920448</v>
       </c>
       <c r="B22" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="C22" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="D22" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -3689,16 +5509,16 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>18330051920103</v>
+        <v>18330051920106</v>
       </c>
       <c r="B23" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="C23" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D23" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -3706,16 +5526,16 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>18330051920448</v>
+        <v>18330051920109</v>
       </c>
       <c r="B24" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="C24" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D24" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -3723,16 +5543,16 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>18330051920106</v>
+        <v>18330051920183</v>
       </c>
       <c r="B25" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="C25" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="D25" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -3740,16 +5560,16 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>18330051920109</v>
+        <v>18330051920185</v>
       </c>
       <c r="B26" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="C26" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="D26" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -3757,16 +5577,16 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>18330051920183</v>
+        <v>18330051920190</v>
       </c>
       <c r="B27" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="C27" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="D27" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -3777,13 +5597,13 @@
         <v>18330051920189</v>
       </c>
       <c r="B28" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="C28" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="D28" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -3794,13 +5614,13 @@
         <v>18330051920191</v>
       </c>
       <c r="B29" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="C29" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="D29" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -3813,7 +5633,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3846,190 +5666,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2">
-        <v>18330051920105</v>
-      </c>
-      <c r="B2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>18330051920105</v>
-      </c>
-      <c r="B3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>18330051920390</v>
-      </c>
-      <c r="B4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G4">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>18330051920088</v>
-      </c>
-      <c r="B5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D5" t="s">
-        <v>81</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>18330051920090</v>
-      </c>
-      <c r="B6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>18330051920185</v>
-      </c>
-      <c r="B7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" t="s">
-        <v>75</v>
-      </c>
-      <c r="D7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>18330051920190</v>
-      </c>
-      <c r="B8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8" t="s">
-        <v>77</v>
-      </c>
-      <c r="D8" t="s">
-        <v>88</v>
-      </c>
-      <c r="E8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>18330051920110</v>
-      </c>
-      <c r="B9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" t="s">
-        <v>79</v>
-      </c>
-      <c r="D9" t="s">
-        <v>91</v>
-      </c>
-      <c r="E9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9">
-        <v>-1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/grupos/6ARHV - Estadisticos 2020.xlsx
+++ b/grupos/6ARHV - Estadisticos 2020.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="129">
   <si>
     <t>Materia</t>
   </si>
@@ -164,15 +164,15 @@
     <t>Por_Blancos</t>
   </si>
   <si>
+    <t>Martínez López Miguel Ángel</t>
+  </si>
+  <si>
+    <t>Duran Amezcua Maria Angelica</t>
+  </si>
+  <si>
     <t>Domínguez Burgos Marioscar</t>
   </si>
   <si>
-    <t>Duran Amezcua Maria Angelica</t>
-  </si>
-  <si>
-    <t>Martínez López Miguel Ángel</t>
-  </si>
-  <si>
     <t>Gaspar Velazco Juan Francisco</t>
   </si>
   <si>
@@ -194,18 +194,114 @@
     <t>ANTONIO</t>
   </si>
   <si>
+    <t>BERINSTAIN</t>
+  </si>
+  <si>
+    <t>CARPINTEYRO</t>
+  </si>
+  <si>
+    <t>CIRUELO</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>MACUIXTLE</t>
+  </si>
+  <si>
+    <t>RAMIREZ</t>
+  </si>
+  <si>
+    <t>VALDES</t>
+  </si>
+  <si>
+    <t>VERA</t>
+  </si>
+  <si>
+    <t>ZACARIAS</t>
+  </si>
+  <si>
+    <t>ZARATE</t>
+  </si>
+  <si>
+    <t>ZEPEDA</t>
+  </si>
+  <si>
+    <t>IGNACIO</t>
+  </si>
+  <si>
+    <t>SAN JUAN</t>
+  </si>
+  <si>
+    <t>GAMBOA</t>
+  </si>
+  <si>
+    <t>MANCILLA</t>
+  </si>
+  <si>
+    <t>REYES</t>
+  </si>
+  <si>
+    <t>CORDOBA</t>
+  </si>
+  <si>
+    <t>MARIN</t>
+  </si>
+  <si>
+    <t>PAZOS</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>JIMENEZ</t>
+  </si>
+  <si>
+    <t>MORALES</t>
+  </si>
+  <si>
+    <t>JOSE MANUEL</t>
+  </si>
+  <si>
+    <t>LUIS FERNANDO</t>
+  </si>
+  <si>
+    <t>FATIMA</t>
+  </si>
+  <si>
+    <t>MARIA DEL CARMEN</t>
+  </si>
+  <si>
+    <t>MARIO</t>
+  </si>
+  <si>
+    <t>JOSUE SAMUEL</t>
+  </si>
+  <si>
+    <t>FRANCISCO JAVIER</t>
+  </si>
+  <si>
+    <t>BRENDA ELENA</t>
+  </si>
+  <si>
+    <t>CARLOS DANIEL</t>
+  </si>
+  <si>
+    <t>CARLA DANIELA</t>
+  </si>
+  <si>
+    <t>LUIS ALBERTO</t>
+  </si>
+  <si>
+    <t>EDUARDO DANIEL</t>
+  </si>
+  <si>
+    <t>NATHAEL</t>
+  </si>
+  <si>
     <t>BRAVO</t>
   </si>
   <si>
-    <t>BERINSTAIN</t>
-  </si>
-  <si>
-    <t>CARPINTEYRO</t>
-  </si>
-  <si>
-    <t>CIRUELO</t>
-  </si>
-  <si>
     <t>COSCAHUA</t>
   </si>
   <si>
@@ -215,18 +311,12 @@
     <t>FLORES</t>
   </si>
   <si>
-    <t>GONZALEZ</t>
-  </si>
-  <si>
     <t>HIDALGO</t>
   </si>
   <si>
     <t>HUERTA</t>
   </si>
   <si>
-    <t>MACUIXTLE</t>
-  </si>
-  <si>
     <t>MORAN</t>
   </si>
   <si>
@@ -236,9 +326,6 @@
     <t>PANTOJA</t>
   </si>
   <si>
-    <t>RAMIREZ</t>
-  </si>
-  <si>
     <t>RAMOS</t>
   </si>
   <si>
@@ -248,42 +335,15 @@
     <t>SANCHEZ</t>
   </si>
   <si>
-    <t>VALDES</t>
-  </si>
-  <si>
-    <t>VERA</t>
-  </si>
-  <si>
     <t>YOPIHUA</t>
   </si>
   <si>
-    <t>ZACARIAS</t>
-  </si>
-  <si>
-    <t>ZARATE</t>
-  </si>
-  <si>
-    <t>ZEPEDA</t>
-  </si>
-  <si>
-    <t>IGNACIO</t>
-  </si>
-  <si>
     <t>ORTEGA</t>
   </si>
   <si>
     <t>APALE</t>
   </si>
   <si>
-    <t>SAN JUAN</t>
-  </si>
-  <si>
-    <t>GAMBOA</t>
-  </si>
-  <si>
-    <t>MANCILLA</t>
-  </si>
-  <si>
     <t>TZOYONTLE</t>
   </si>
   <si>
@@ -296,54 +356,21 @@
     <t>PERALTA</t>
   </si>
   <si>
-    <t>REYES</t>
-  </si>
-  <si>
     <t>APOLINAR</t>
   </si>
   <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>CORDOBA</t>
-  </si>
-  <si>
     <t>JUAREZ</t>
   </si>
   <si>
     <t>QUIAHUA</t>
   </si>
   <si>
-    <t>MARIN</t>
-  </si>
-  <si>
-    <t>PAZOS</t>
-  </si>
-  <si>
-    <t>JIMENEZ</t>
-  </si>
-  <si>
-    <t>MORALES</t>
-  </si>
-  <si>
-    <t>JOSE MANUEL</t>
-  </si>
-  <si>
     <t>JUAN CARLOS</t>
   </si>
   <si>
     <t>BRENDA IVETH</t>
   </si>
   <si>
-    <t>LUIS FERNANDO</t>
-  </si>
-  <si>
-    <t>FATIMA</t>
-  </si>
-  <si>
-    <t>MARIA DEL CARMEN</t>
-  </si>
-  <si>
     <t>GUADALUPE</t>
   </si>
   <si>
@@ -356,27 +383,18 @@
     <t>MARIA JOSE</t>
   </si>
   <si>
-    <t>MARIO</t>
-  </si>
-  <si>
     <t>MONSERRAT</t>
   </si>
   <si>
     <t>ANGELL DAYANI</t>
   </si>
   <si>
-    <t>JOSUE SAMUEL</t>
-  </si>
-  <si>
     <t>ALAN MIGUEL</t>
   </si>
   <si>
     <t>YAZMIN ISABEL</t>
   </si>
   <si>
-    <t>FRANCISCO JAVIER</t>
-  </si>
-  <si>
     <t>ARIANA GUADALUPE</t>
   </si>
   <si>
@@ -386,25 +404,7 @@
     <t>LORENA</t>
   </si>
   <si>
-    <t>BRENDA ELENA</t>
-  </si>
-  <si>
-    <t>CARLOS DANIEL</t>
-  </si>
-  <si>
-    <t>CARLA DANIELA</t>
-  </si>
-  <si>
     <t>KRISTAL</t>
-  </si>
-  <si>
-    <t>LUIS ALBERTO</t>
-  </si>
-  <si>
-    <t>EDUARDO DANIEL</t>
-  </si>
-  <si>
-    <t>NATHAEL</t>
   </si>
 </sst>
 </file>
@@ -885,7 +885,7 @@
         <v>9</v>
       </c>
       <c r="H4">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="I4">
         <v>-1</v>
@@ -894,13 +894,13 @@
         <v>9</v>
       </c>
       <c r="K4">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L4">
         <v>7</v>
       </c>
       <c r="M4">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N4">
         <v>-1</v>
@@ -935,7 +935,7 @@
         <v>9</v>
       </c>
       <c r="E5">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F5">
         <v>6</v>
@@ -944,22 +944,22 @@
         <v>10</v>
       </c>
       <c r="H5">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I5">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J5">
         <v>9</v>
       </c>
       <c r="K5">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L5">
         <v>8</v>
       </c>
       <c r="M5">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N5">
         <v>-1</v>
@@ -1003,22 +1003,22 @@
         <v>6</v>
       </c>
       <c r="H6">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="I6">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J6">
         <v>9</v>
       </c>
       <c r="K6">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L6">
         <v>-1</v>
       </c>
       <c r="M6">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N6">
         <v>-1</v>
@@ -1062,22 +1062,22 @@
         <v>8</v>
       </c>
       <c r="H7">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I7">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J7">
         <v>9</v>
       </c>
       <c r="K7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L7">
         <v>8</v>
       </c>
       <c r="M7">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N7">
         <v>-1</v>
@@ -1130,13 +1130,13 @@
         <v>8</v>
       </c>
       <c r="K8">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L8">
         <v>6</v>
       </c>
       <c r="M8">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N8">
         <v>-1</v>
@@ -1189,13 +1189,13 @@
         <v>9</v>
       </c>
       <c r="K9">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L9">
         <v>5</v>
       </c>
       <c r="M9">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N9">
         <v>-1</v>
@@ -1239,22 +1239,22 @@
         <v>9</v>
       </c>
       <c r="H10">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I10">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J10">
         <v>10</v>
       </c>
       <c r="K10">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L10">
         <v>9</v>
       </c>
       <c r="M10">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N10">
         <v>-1</v>
@@ -1298,22 +1298,22 @@
         <v>7</v>
       </c>
       <c r="H11">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="I11">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J11">
         <v>10</v>
       </c>
       <c r="K11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L11">
         <v>8</v>
       </c>
       <c r="M11">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N11">
         <v>-1</v>
@@ -1357,22 +1357,22 @@
         <v>7</v>
       </c>
       <c r="H12">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I12">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J12">
         <v>10</v>
       </c>
       <c r="K12">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L12">
         <v>8</v>
       </c>
       <c r="M12">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N12">
         <v>-1</v>
@@ -1416,22 +1416,22 @@
         <v>7</v>
       </c>
       <c r="H13">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="I13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J13">
         <v>10</v>
       </c>
       <c r="K13">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L13">
         <v>9</v>
       </c>
       <c r="M13">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N13">
         <v>-1</v>
@@ -1457,16 +1457,16 @@
         <v>21</v>
       </c>
       <c r="B14">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C14">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D14">
         <v>5</v>
       </c>
       <c r="E14">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F14">
         <v>-1</v>
@@ -1484,7 +1484,7 @@
         <v>7</v>
       </c>
       <c r="K14">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L14">
         <v>-1</v>
@@ -1534,22 +1534,22 @@
         <v>8</v>
       </c>
       <c r="H15">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="I15">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J15">
         <v>9</v>
       </c>
       <c r="K15">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L15">
         <v>9</v>
       </c>
       <c r="M15">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N15">
         <v>-1</v>
@@ -1593,22 +1593,22 @@
         <v>9</v>
       </c>
       <c r="H16">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I16">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J16">
         <v>9</v>
       </c>
       <c r="K16">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L16">
         <v>6</v>
       </c>
       <c r="M16">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N16">
         <v>-1</v>
@@ -1655,19 +1655,19 @@
         <v>-1</v>
       </c>
       <c r="I17">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J17">
         <v>9</v>
       </c>
       <c r="K17">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L17">
         <v>8</v>
       </c>
       <c r="M17">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N17">
         <v>-1</v>
@@ -1702,7 +1702,7 @@
         <v>5</v>
       </c>
       <c r="E18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F18">
         <v>8</v>
@@ -1711,22 +1711,22 @@
         <v>9</v>
       </c>
       <c r="H18">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J18">
         <v>10</v>
       </c>
       <c r="K18">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L18">
         <v>6</v>
       </c>
       <c r="M18">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N18">
         <v>-1</v>
@@ -1770,22 +1770,22 @@
         <v>9</v>
       </c>
       <c r="H19">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I19">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J19">
         <v>10</v>
       </c>
       <c r="K19">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L19">
         <v>8</v>
       </c>
       <c r="M19">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N19">
         <v>-1</v>
@@ -1829,22 +1829,22 @@
         <v>8</v>
       </c>
       <c r="H20">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J20">
         <v>10</v>
       </c>
       <c r="K20">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L20">
         <v>6</v>
       </c>
       <c r="M20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N20">
         <v>-1</v>
@@ -1870,16 +1870,16 @@
         <v>28</v>
       </c>
       <c r="B21">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C21">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D21">
         <v>6</v>
       </c>
       <c r="E21">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F21">
         <v>-1</v>
@@ -1897,7 +1897,7 @@
         <v>7</v>
       </c>
       <c r="K21">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L21">
         <v>-1</v>
@@ -1947,22 +1947,22 @@
         <v>8</v>
       </c>
       <c r="H22">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I22">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J22">
         <v>10</v>
       </c>
       <c r="K22">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L22">
         <v>9</v>
       </c>
       <c r="M22">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N22">
         <v>-1</v>
@@ -2006,22 +2006,22 @@
         <v>9</v>
       </c>
       <c r="H23">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="I23">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J23">
         <v>10</v>
       </c>
       <c r="K23">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L23">
         <v>9</v>
       </c>
       <c r="M23">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="N23">
         <v>-1</v>
@@ -2065,22 +2065,22 @@
         <v>8</v>
       </c>
       <c r="H24">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I24">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J24">
         <v>9</v>
       </c>
       <c r="K24">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L24">
         <v>6</v>
       </c>
       <c r="M24">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N24">
         <v>-1</v>
@@ -2109,13 +2109,13 @@
         <v>6</v>
       </c>
       <c r="C25">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D25">
         <v>7</v>
       </c>
       <c r="E25">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F25">
         <v>5</v>
@@ -2124,7 +2124,7 @@
         <v>5</v>
       </c>
       <c r="H25">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="I25">
         <v>-1</v>
@@ -2133,7 +2133,7 @@
         <v>9</v>
       </c>
       <c r="K25">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L25">
         <v>5</v>
@@ -2183,7 +2183,7 @@
         <v>8</v>
       </c>
       <c r="H26">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="I26">
         <v>-1</v>
@@ -2192,13 +2192,13 @@
         <v>8</v>
       </c>
       <c r="K26">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L26">
         <v>6</v>
       </c>
       <c r="M26">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="N26">
         <v>-1</v>
@@ -2251,13 +2251,13 @@
         <v>8</v>
       </c>
       <c r="K27">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L27">
         <v>6</v>
       </c>
       <c r="M27">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N27">
         <v>-1</v>
@@ -2301,22 +2301,22 @@
         <v>9</v>
       </c>
       <c r="H28">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I28">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J28">
         <v>9</v>
       </c>
       <c r="K28">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L28">
         <v>9</v>
       </c>
       <c r="M28">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="N28">
         <v>-1</v>
@@ -2345,13 +2345,13 @@
         <v>6</v>
       </c>
       <c r="C29">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D29">
         <v>9</v>
       </c>
       <c r="E29">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F29">
         <v>6</v>
@@ -2360,7 +2360,7 @@
         <v>8</v>
       </c>
       <c r="H29">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="I29">
         <v>-1</v>
@@ -2369,13 +2369,13 @@
         <v>9</v>
       </c>
       <c r="K29">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L29">
         <v>6</v>
       </c>
       <c r="M29">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N29">
         <v>-1</v>
@@ -2401,16 +2401,16 @@
         <v>37</v>
       </c>
       <c r="B30">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C30">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D30">
         <v>5</v>
       </c>
       <c r="E30">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F30">
         <v>-1</v>
@@ -2428,7 +2428,7 @@
         <v>7</v>
       </c>
       <c r="K30">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L30">
         <v>-1</v>
@@ -2469,7 +2469,7 @@
         <v>7</v>
       </c>
       <c r="E31">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F31">
         <v>8</v>
@@ -2487,13 +2487,13 @@
         <v>8</v>
       </c>
       <c r="K31">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L31">
         <v>8</v>
       </c>
       <c r="M31">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N31">
         <v>-1</v>
@@ -2569,7 +2569,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>48</v>
@@ -2578,115 +2578,115 @@
         <v>28</v>
       </c>
       <c r="D2">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F2">
-        <v>71.43000000000001</v>
+        <v>60.71</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>39.29</v>
       </c>
       <c r="H2">
         <v>8.199999999999999</v>
       </c>
       <c r="I2">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J2">
-        <v>28.57</v>
+        <v>39.29</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3">
         <v>28</v>
       </c>
       <c r="D3">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F3">
-        <v>78.56999999999999</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="G3">
-        <v>10.71</v>
+        <v>28.57</v>
       </c>
       <c r="H3">
-        <v>7.5</v>
+        <v>8.1</v>
       </c>
       <c r="I3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J3">
-        <v>10.71</v>
+        <v>28.57</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4">
         <v>28</v>
       </c>
       <c r="D4">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>82.14</v>
+        <v>78.56999999999999</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>10.71</v>
       </c>
       <c r="H4">
-        <v>8.5</v>
+        <v>7.3</v>
       </c>
       <c r="I4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J4">
-        <v>17.86</v>
+        <v>14.29</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C5">
         <v>28</v>
       </c>
       <c r="D5">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F5">
-        <v>85.70999999999999</v>
+        <v>82.14</v>
       </c>
       <c r="G5">
-        <v>14.29</v>
+        <v>17.86</v>
       </c>
       <c r="H5">
-        <v>7.5</v>
+        <v>7.1</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -2697,34 +2697,34 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C6">
         <v>28</v>
       </c>
       <c r="D6">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F6">
-        <v>89.29000000000001</v>
+        <v>85.70999999999999</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>14.29</v>
       </c>
       <c r="H6">
-        <v>8.5</v>
+        <v>7.4</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J6">
-        <v>10.71</v>
+        <v>14.29</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2738,19 +2738,19 @@
         <v>28</v>
       </c>
       <c r="D7">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>89.29000000000001</v>
+        <v>100</v>
       </c>
       <c r="G7">
-        <v>10.71</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>8.1</v>
+        <v>9</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -2766,7 +2766,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F117"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2804,93 +2804,93 @@
         <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="D2" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>18330051920085</v>
+        <v>18330051920088</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="D3" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>18330051920085</v>
+        <v>18330051920090</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" t="s">
         <v>82</v>
       </c>
-      <c r="D4" t="s">
-        <v>102</v>
-      </c>
       <c r="E4" t="s">
         <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>18330051920085</v>
+        <v>18330051920090</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" t="s">
         <v>82</v>
       </c>
-      <c r="D5" t="s">
-        <v>102</v>
-      </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>18330051920390</v>
+        <v>18330051920446</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" t="s">
         <v>83</v>
       </c>
-      <c r="D6" t="s">
-        <v>103</v>
-      </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F6" t="s">
         <v>48</v>
@@ -2898,36 +2898,36 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>18330051920390</v>
+        <v>18330051920446</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" t="s">
         <v>83</v>
-      </c>
-      <c r="D7" t="s">
-        <v>103</v>
       </c>
       <c r="E7" t="s">
         <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>18330051920390</v>
+        <v>17330051920334</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C8" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="D8" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
@@ -2938,239 +2938,239 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>18330051920390</v>
+        <v>17330051920334</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C9" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="D9" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="E9" t="s">
         <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>18330051920089</v>
+        <v>17330051920334</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" t="s">
         <v>84</v>
       </c>
-      <c r="D10" t="s">
-        <v>104</v>
-      </c>
       <c r="E10" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>18330051920089</v>
+        <v>17330051920334</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" t="s">
         <v>84</v>
       </c>
-      <c r="D11" t="s">
-        <v>104</v>
-      </c>
       <c r="E11" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>18330051920089</v>
+        <v>18330051920103</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C12" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="D12" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="E12" t="s">
         <v>4</v>
       </c>
       <c r="F12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>18330051920089</v>
+        <v>18330051920108</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C13" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D13" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="E13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>18330051920088</v>
+        <v>18330051920108</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C14" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="D14" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="E14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>18330051920088</v>
+        <v>18330051920108</v>
       </c>
       <c r="B15" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C15" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="D15" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="E15" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F15" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>18330051920088</v>
+        <v>18330051920108</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C16" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="D16" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="E16" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>18330051920088</v>
+        <v>18330051920188</v>
       </c>
       <c r="B17" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C17" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="D17" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="E17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F17" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>18330051920088</v>
+        <v>18330051920188</v>
       </c>
       <c r="B18" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C18" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="D18" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="E18" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F18" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>18330051920090</v>
+        <v>18330051920190</v>
       </c>
       <c r="B19" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C19" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="D19" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="E19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>18330051920090</v>
+        <v>18330051920190</v>
       </c>
       <c r="B20" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C20" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="D20" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="E20" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F20" t="s">
         <v>48</v>
@@ -3178,96 +3178,96 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>18330051920090</v>
+        <v>18330051920189</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C21" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="D21" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="E21" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>18330051920090</v>
+        <v>18330051920391</v>
       </c>
       <c r="B22" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C22" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="D22" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="E22" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F22" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>18330051920446</v>
+        <v>17330051920264</v>
       </c>
       <c r="B23" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C23" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D23" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="E23" t="s">
         <v>4</v>
       </c>
       <c r="F23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>18330051920446</v>
+        <v>17330051920264</v>
       </c>
       <c r="B24" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C24" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D24" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="E24" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>18330051920446</v>
+        <v>17330051920264</v>
       </c>
       <c r="B25" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C25" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D25" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="E25" t="s">
         <v>9</v>
@@ -3278,19 +3278,19 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>18330051920446</v>
+        <v>17330051920264</v>
       </c>
       <c r="B26" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C26" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D26" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="E26" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F26" t="s">
         <v>48</v>
@@ -3298,1821 +3298,41 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>18330051920092</v>
+        <v>18330051920110</v>
       </c>
       <c r="B27" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C27" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="D27" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="E27" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F27" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>18330051920092</v>
+        <v>18330051920110</v>
       </c>
       <c r="B28" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C28" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="D28" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="E28" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F28" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29">
-        <v>18330051920092</v>
-      </c>
-      <c r="B29" t="s">
-        <v>62</v>
-      </c>
-      <c r="C29" t="s">
-        <v>88</v>
-      </c>
-      <c r="D29" t="s">
-        <v>108</v>
-      </c>
-      <c r="E29" t="s">
-        <v>7</v>
-      </c>
-      <c r="F29" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30">
-        <v>18330051920092</v>
-      </c>
-      <c r="B30" t="s">
-        <v>62</v>
-      </c>
-      <c r="C30" t="s">
-        <v>88</v>
-      </c>
-      <c r="D30" t="s">
-        <v>108</v>
-      </c>
-      <c r="E30" t="s">
-        <v>4</v>
-      </c>
-      <c r="F30" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31">
-        <v>18330051920093</v>
-      </c>
-      <c r="B31" t="s">
-        <v>63</v>
-      </c>
-      <c r="C31" t="s">
-        <v>89</v>
-      </c>
-      <c r="D31" t="s">
-        <v>109</v>
-      </c>
-      <c r="E31" t="s">
-        <v>5</v>
-      </c>
-      <c r="F31" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32">
-        <v>18330051920093</v>
-      </c>
-      <c r="B32" t="s">
-        <v>63</v>
-      </c>
-      <c r="C32" t="s">
-        <v>89</v>
-      </c>
-      <c r="D32" t="s">
-        <v>109</v>
-      </c>
-      <c r="E32" t="s">
-        <v>7</v>
-      </c>
-      <c r="F32" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33">
-        <v>18330051920093</v>
-      </c>
-      <c r="B33" t="s">
-        <v>63</v>
-      </c>
-      <c r="C33" t="s">
-        <v>89</v>
-      </c>
-      <c r="D33" t="s">
-        <v>109</v>
-      </c>
-      <c r="E33" t="s">
-        <v>4</v>
-      </c>
-      <c r="F33" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34">
-        <v>18330051920093</v>
-      </c>
-      <c r="B34" t="s">
-        <v>63</v>
-      </c>
-      <c r="C34" t="s">
-        <v>89</v>
-      </c>
-      <c r="D34" t="s">
-        <v>109</v>
-      </c>
-      <c r="E34" t="s">
-        <v>9</v>
-      </c>
-      <c r="F34" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35">
-        <v>18330051920095</v>
-      </c>
-      <c r="B35" t="s">
-        <v>64</v>
-      </c>
-      <c r="C35" t="s">
-        <v>90</v>
-      </c>
-      <c r="D35" t="s">
-        <v>110</v>
-      </c>
-      <c r="E35" t="s">
-        <v>4</v>
-      </c>
-      <c r="F35" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36">
-        <v>18330051920095</v>
-      </c>
-      <c r="B36" t="s">
-        <v>64</v>
-      </c>
-      <c r="C36" t="s">
-        <v>90</v>
-      </c>
-      <c r="D36" t="s">
-        <v>110</v>
-      </c>
-      <c r="E36" t="s">
-        <v>9</v>
-      </c>
-      <c r="F36" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37">
-        <v>18330051920095</v>
-      </c>
-      <c r="B37" t="s">
-        <v>64</v>
-      </c>
-      <c r="C37" t="s">
-        <v>90</v>
-      </c>
-      <c r="D37" t="s">
-        <v>110</v>
-      </c>
-      <c r="E37" t="s">
-        <v>5</v>
-      </c>
-      <c r="F37" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38">
-        <v>18330051920095</v>
-      </c>
-      <c r="B38" t="s">
-        <v>64</v>
-      </c>
-      <c r="C38" t="s">
-        <v>90</v>
-      </c>
-      <c r="D38" t="s">
-        <v>110</v>
-      </c>
-      <c r="E38" t="s">
-        <v>7</v>
-      </c>
-      <c r="F38" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39">
-        <v>18330051920096</v>
-      </c>
-      <c r="B39" t="s">
-        <v>64</v>
-      </c>
-      <c r="C39" t="s">
-        <v>91</v>
-      </c>
-      <c r="D39" t="s">
-        <v>111</v>
-      </c>
-      <c r="E39" t="s">
-        <v>4</v>
-      </c>
-      <c r="F39" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40">
-        <v>18330051920096</v>
-      </c>
-      <c r="B40" t="s">
-        <v>64</v>
-      </c>
-      <c r="C40" t="s">
-        <v>91</v>
-      </c>
-      <c r="D40" t="s">
-        <v>111</v>
-      </c>
-      <c r="E40" t="s">
-        <v>7</v>
-      </c>
-      <c r="F40" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41">
-        <v>18330051920096</v>
-      </c>
-      <c r="B41" t="s">
-        <v>64</v>
-      </c>
-      <c r="C41" t="s">
-        <v>91</v>
-      </c>
-      <c r="D41" t="s">
-        <v>111</v>
-      </c>
-      <c r="E41" t="s">
-        <v>9</v>
-      </c>
-      <c r="F41" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42">
-        <v>18330051920096</v>
-      </c>
-      <c r="B42" t="s">
-        <v>64</v>
-      </c>
-      <c r="C42" t="s">
-        <v>91</v>
-      </c>
-      <c r="D42" t="s">
-        <v>111</v>
-      </c>
-      <c r="E42" t="s">
-        <v>5</v>
-      </c>
-      <c r="F42" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43">
-        <v>17330051920334</v>
-      </c>
-      <c r="B43" t="s">
-        <v>65</v>
-      </c>
-      <c r="C43" t="s">
-        <v>92</v>
-      </c>
-      <c r="D43" t="s">
-        <v>112</v>
-      </c>
-      <c r="E43" t="s">
-        <v>4</v>
-      </c>
-      <c r="F43" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44">
-        <v>17330051920334</v>
-      </c>
-      <c r="B44" t="s">
-        <v>65</v>
-      </c>
-      <c r="C44" t="s">
-        <v>92</v>
-      </c>
-      <c r="D44" t="s">
-        <v>112</v>
-      </c>
-      <c r="E44" t="s">
-        <v>9</v>
-      </c>
-      <c r="F44" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45">
-        <v>17330051920334</v>
-      </c>
-      <c r="B45" t="s">
-        <v>65</v>
-      </c>
-      <c r="C45" t="s">
-        <v>92</v>
-      </c>
-      <c r="D45" t="s">
-        <v>112</v>
-      </c>
-      <c r="E45" t="s">
-        <v>5</v>
-      </c>
-      <c r="F45" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46">
-        <v>17330051920334</v>
-      </c>
-      <c r="B46" t="s">
-        <v>65</v>
-      </c>
-      <c r="C46" t="s">
-        <v>92</v>
-      </c>
-      <c r="D46" t="s">
-        <v>112</v>
-      </c>
-      <c r="E46" t="s">
-        <v>7</v>
-      </c>
-      <c r="F46" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47">
-        <v>17330051920334</v>
-      </c>
-      <c r="B47" t="s">
-        <v>65</v>
-      </c>
-      <c r="C47" t="s">
-        <v>92</v>
-      </c>
-      <c r="D47" t="s">
-        <v>112</v>
-      </c>
-      <c r="E47" t="s">
-        <v>8</v>
-      </c>
-      <c r="F47" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48">
-        <v>18330051920100</v>
-      </c>
-      <c r="B48" t="s">
-        <v>66</v>
-      </c>
-      <c r="C48" t="s">
-        <v>93</v>
-      </c>
-      <c r="D48" t="s">
-        <v>113</v>
-      </c>
-      <c r="E48" t="s">
-        <v>7</v>
-      </c>
-      <c r="F48" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49">
-        <v>18330051920100</v>
-      </c>
-      <c r="B49" t="s">
-        <v>66</v>
-      </c>
-      <c r="C49" t="s">
-        <v>93</v>
-      </c>
-      <c r="D49" t="s">
-        <v>113</v>
-      </c>
-      <c r="E49" t="s">
-        <v>4</v>
-      </c>
-      <c r="F49" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50">
-        <v>18330051920100</v>
-      </c>
-      <c r="B50" t="s">
-        <v>66</v>
-      </c>
-      <c r="C50" t="s">
-        <v>93</v>
-      </c>
-      <c r="D50" t="s">
-        <v>113</v>
-      </c>
-      <c r="E50" t="s">
-        <v>5</v>
-      </c>
-      <c r="F50" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51">
-        <v>18330051920100</v>
-      </c>
-      <c r="B51" t="s">
-        <v>66</v>
-      </c>
-      <c r="C51" t="s">
-        <v>93</v>
-      </c>
-      <c r="D51" t="s">
-        <v>113</v>
-      </c>
-      <c r="E51" t="s">
-        <v>9</v>
-      </c>
-      <c r="F51" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52">
-        <v>18330051920101</v>
-      </c>
-      <c r="B52" t="s">
-        <v>67</v>
-      </c>
-      <c r="C52" t="s">
-        <v>94</v>
-      </c>
-      <c r="D52" t="s">
-        <v>114</v>
-      </c>
-      <c r="E52" t="s">
-        <v>5</v>
-      </c>
-      <c r="F52" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53">
-        <v>18330051920101</v>
-      </c>
-      <c r="B53" t="s">
-        <v>67</v>
-      </c>
-      <c r="C53" t="s">
-        <v>94</v>
-      </c>
-      <c r="D53" t="s">
-        <v>114</v>
-      </c>
-      <c r="E53" t="s">
-        <v>4</v>
-      </c>
-      <c r="F53" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54">
-        <v>18330051920101</v>
-      </c>
-      <c r="B54" t="s">
-        <v>67</v>
-      </c>
-      <c r="C54" t="s">
-        <v>94</v>
-      </c>
-      <c r="D54" t="s">
-        <v>114</v>
-      </c>
-      <c r="E54" t="s">
-        <v>7</v>
-      </c>
-      <c r="F54" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55">
-        <v>18330051920101</v>
-      </c>
-      <c r="B55" t="s">
-        <v>67</v>
-      </c>
-      <c r="C55" t="s">
-        <v>94</v>
-      </c>
-      <c r="D55" t="s">
-        <v>114</v>
-      </c>
-      <c r="E55" t="s">
-        <v>9</v>
-      </c>
-      <c r="F55" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56">
-        <v>18330051920103</v>
-      </c>
-      <c r="B56" t="s">
-        <v>68</v>
-      </c>
-      <c r="C56" t="s">
-        <v>68</v>
-      </c>
-      <c r="D56" t="s">
-        <v>115</v>
-      </c>
-      <c r="E56" t="s">
-        <v>9</v>
-      </c>
-      <c r="F56" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57">
-        <v>18330051920103</v>
-      </c>
-      <c r="B57" t="s">
-        <v>68</v>
-      </c>
-      <c r="C57" t="s">
-        <v>68</v>
-      </c>
-      <c r="D57" t="s">
-        <v>115</v>
-      </c>
-      <c r="E57" t="s">
-        <v>4</v>
-      </c>
-      <c r="F57" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58">
-        <v>18330051920103</v>
-      </c>
-      <c r="B58" t="s">
-        <v>68</v>
-      </c>
-      <c r="C58" t="s">
-        <v>68</v>
-      </c>
-      <c r="D58" t="s">
-        <v>115</v>
-      </c>
-      <c r="E58" t="s">
-        <v>7</v>
-      </c>
-      <c r="F58" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59">
-        <v>18330051920103</v>
-      </c>
-      <c r="B59" t="s">
-        <v>68</v>
-      </c>
-      <c r="C59" t="s">
-        <v>68</v>
-      </c>
-      <c r="D59" t="s">
-        <v>115</v>
-      </c>
-      <c r="E59" t="s">
-        <v>5</v>
-      </c>
-      <c r="F59" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60">
-        <v>18330051920105</v>
-      </c>
-      <c r="B60" t="s">
-        <v>69</v>
-      </c>
-      <c r="C60" t="s">
-        <v>94</v>
-      </c>
-      <c r="D60" t="s">
-        <v>107</v>
-      </c>
-      <c r="E60" t="s">
-        <v>4</v>
-      </c>
-      <c r="F60" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61">
-        <v>18330051920105</v>
-      </c>
-      <c r="B61" t="s">
-        <v>69</v>
-      </c>
-      <c r="C61" t="s">
-        <v>94</v>
-      </c>
-      <c r="D61" t="s">
-        <v>107</v>
-      </c>
-      <c r="E61" t="s">
-        <v>7</v>
-      </c>
-      <c r="F61" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62">
-        <v>18330051920105</v>
-      </c>
-      <c r="B62" t="s">
-        <v>69</v>
-      </c>
-      <c r="C62" t="s">
-        <v>94</v>
-      </c>
-      <c r="D62" t="s">
-        <v>107</v>
-      </c>
-      <c r="E62" t="s">
-        <v>5</v>
-      </c>
-      <c r="F62" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63">
-        <v>18330051920105</v>
-      </c>
-      <c r="B63" t="s">
-        <v>69</v>
-      </c>
-      <c r="C63" t="s">
-        <v>94</v>
-      </c>
-      <c r="D63" t="s">
-        <v>107</v>
-      </c>
-      <c r="E63" t="s">
-        <v>9</v>
-      </c>
-      <c r="F63" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64">
-        <v>18330051920448</v>
-      </c>
-      <c r="B64" t="s">
-        <v>70</v>
-      </c>
-      <c r="C64" t="s">
-        <v>64</v>
-      </c>
-      <c r="D64" t="s">
-        <v>116</v>
-      </c>
-      <c r="E64" t="s">
-        <v>7</v>
-      </c>
-      <c r="F64" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65">
-        <v>18330051920448</v>
-      </c>
-      <c r="B65" t="s">
-        <v>70</v>
-      </c>
-      <c r="C65" t="s">
-        <v>64</v>
-      </c>
-      <c r="D65" t="s">
-        <v>116</v>
-      </c>
-      <c r="E65" t="s">
-        <v>5</v>
-      </c>
-      <c r="F65" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66">
-        <v>18330051920448</v>
-      </c>
-      <c r="B66" t="s">
-        <v>70</v>
-      </c>
-      <c r="C66" t="s">
-        <v>64</v>
-      </c>
-      <c r="D66" t="s">
-        <v>116</v>
-      </c>
-      <c r="E66" t="s">
-        <v>4</v>
-      </c>
-      <c r="F66" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67">
-        <v>18330051920448</v>
-      </c>
-      <c r="B67" t="s">
-        <v>70</v>
-      </c>
-      <c r="C67" t="s">
-        <v>64</v>
-      </c>
-      <c r="D67" t="s">
-        <v>116</v>
-      </c>
-      <c r="E67" t="s">
-        <v>9</v>
-      </c>
-      <c r="F67" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68">
-        <v>18330051920106</v>
-      </c>
-      <c r="B68" t="s">
-        <v>71</v>
-      </c>
-      <c r="C68" t="s">
-        <v>94</v>
-      </c>
-      <c r="D68" t="s">
-        <v>117</v>
-      </c>
-      <c r="E68" t="s">
-        <v>9</v>
-      </c>
-      <c r="F68" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69">
-        <v>18330051920106</v>
-      </c>
-      <c r="B69" t="s">
-        <v>71</v>
-      </c>
-      <c r="C69" t="s">
-        <v>94</v>
-      </c>
-      <c r="D69" t="s">
-        <v>117</v>
-      </c>
-      <c r="E69" t="s">
-        <v>4</v>
-      </c>
-      <c r="F69" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70">
-        <v>18330051920106</v>
-      </c>
-      <c r="B70" t="s">
-        <v>71</v>
-      </c>
-      <c r="C70" t="s">
-        <v>94</v>
-      </c>
-      <c r="D70" t="s">
-        <v>117</v>
-      </c>
-      <c r="E70" t="s">
-        <v>5</v>
-      </c>
-      <c r="F70" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71">
-        <v>18330051920106</v>
-      </c>
-      <c r="B71" t="s">
-        <v>71</v>
-      </c>
-      <c r="C71" t="s">
-        <v>94</v>
-      </c>
-      <c r="D71" t="s">
-        <v>117</v>
-      </c>
-      <c r="E71" t="s">
-        <v>7</v>
-      </c>
-      <c r="F71" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72">
-        <v>18330051920108</v>
-      </c>
-      <c r="B72" t="s">
-        <v>72</v>
-      </c>
-      <c r="C72" t="s">
-        <v>95</v>
-      </c>
-      <c r="D72" t="s">
-        <v>118</v>
-      </c>
-      <c r="E72" t="s">
-        <v>9</v>
-      </c>
-      <c r="F72" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73">
-        <v>18330051920108</v>
-      </c>
-      <c r="B73" t="s">
-        <v>72</v>
-      </c>
-      <c r="C73" t="s">
-        <v>95</v>
-      </c>
-      <c r="D73" t="s">
-        <v>118</v>
-      </c>
-      <c r="E73" t="s">
-        <v>7</v>
-      </c>
-      <c r="F73" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74">
-        <v>18330051920108</v>
-      </c>
-      <c r="B74" t="s">
-        <v>72</v>
-      </c>
-      <c r="C74" t="s">
-        <v>95</v>
-      </c>
-      <c r="D74" t="s">
-        <v>118</v>
-      </c>
-      <c r="E74" t="s">
-        <v>4</v>
-      </c>
-      <c r="F74" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75">
-        <v>18330051920108</v>
-      </c>
-      <c r="B75" t="s">
-        <v>72</v>
-      </c>
-      <c r="C75" t="s">
-        <v>95</v>
-      </c>
-      <c r="D75" t="s">
-        <v>118</v>
-      </c>
-      <c r="E75" t="s">
-        <v>8</v>
-      </c>
-      <c r="F75" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76">
-        <v>18330051920108</v>
-      </c>
-      <c r="B76" t="s">
-        <v>72</v>
-      </c>
-      <c r="C76" t="s">
-        <v>95</v>
-      </c>
-      <c r="D76" t="s">
-        <v>118</v>
-      </c>
-      <c r="E76" t="s">
-        <v>5</v>
-      </c>
-      <c r="F76" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77">
-        <v>18330051920109</v>
-      </c>
-      <c r="B77" t="s">
-        <v>73</v>
-      </c>
-      <c r="C77" t="s">
-        <v>91</v>
-      </c>
-      <c r="D77" t="s">
-        <v>119</v>
-      </c>
-      <c r="E77" t="s">
-        <v>9</v>
-      </c>
-      <c r="F77" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78">
-        <v>18330051920109</v>
-      </c>
-      <c r="B78" t="s">
-        <v>73</v>
-      </c>
-      <c r="C78" t="s">
-        <v>91</v>
-      </c>
-      <c r="D78" t="s">
-        <v>119</v>
-      </c>
-      <c r="E78" t="s">
-        <v>7</v>
-      </c>
-      <c r="F78" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79">
-        <v>18330051920109</v>
-      </c>
-      <c r="B79" t="s">
-        <v>73</v>
-      </c>
-      <c r="C79" t="s">
-        <v>91</v>
-      </c>
-      <c r="D79" t="s">
-        <v>119</v>
-      </c>
-      <c r="E79" t="s">
-        <v>5</v>
-      </c>
-      <c r="F79" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80">
-        <v>18330051920109</v>
-      </c>
-      <c r="B80" t="s">
-        <v>73</v>
-      </c>
-      <c r="C80" t="s">
-        <v>91</v>
-      </c>
-      <c r="D80" t="s">
-        <v>119</v>
-      </c>
-      <c r="E80" t="s">
-        <v>4</v>
-      </c>
-      <c r="F80" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81">
-        <v>18330051920183</v>
-      </c>
-      <c r="B81" t="s">
-        <v>74</v>
-      </c>
-      <c r="C81" t="s">
-        <v>96</v>
-      </c>
-      <c r="D81" t="s">
-        <v>120</v>
-      </c>
-      <c r="E81" t="s">
-        <v>4</v>
-      </c>
-      <c r="F81" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82">
-        <v>18330051920183</v>
-      </c>
-      <c r="B82" t="s">
-        <v>74</v>
-      </c>
-      <c r="C82" t="s">
-        <v>96</v>
-      </c>
-      <c r="D82" t="s">
-        <v>120</v>
-      </c>
-      <c r="E82" t="s">
-        <v>5</v>
-      </c>
-      <c r="F82" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83">
-        <v>18330051920183</v>
-      </c>
-      <c r="B83" t="s">
-        <v>74</v>
-      </c>
-      <c r="C83" t="s">
-        <v>96</v>
-      </c>
-      <c r="D83" t="s">
-        <v>120</v>
-      </c>
-      <c r="E83" t="s">
-        <v>9</v>
-      </c>
-      <c r="F83" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84">
-        <v>18330051920183</v>
-      </c>
-      <c r="B84" t="s">
-        <v>74</v>
-      </c>
-      <c r="C84" t="s">
-        <v>96</v>
-      </c>
-      <c r="D84" t="s">
-        <v>120</v>
-      </c>
-      <c r="E84" t="s">
-        <v>7</v>
-      </c>
-      <c r="F84" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="A85">
-        <v>18330051920185</v>
-      </c>
-      <c r="B85" t="s">
-        <v>75</v>
-      </c>
-      <c r="C85" t="s">
-        <v>97</v>
-      </c>
-      <c r="D85" t="s">
-        <v>121</v>
-      </c>
-      <c r="E85" t="s">
-        <v>5</v>
-      </c>
-      <c r="F85" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86">
-        <v>18330051920185</v>
-      </c>
-      <c r="B86" t="s">
-        <v>75</v>
-      </c>
-      <c r="C86" t="s">
-        <v>97</v>
-      </c>
-      <c r="D86" t="s">
-        <v>121</v>
-      </c>
-      <c r="E86" t="s">
-        <v>9</v>
-      </c>
-      <c r="F86" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="A87">
-        <v>18330051920185</v>
-      </c>
-      <c r="B87" t="s">
-        <v>75</v>
-      </c>
-      <c r="C87" t="s">
-        <v>97</v>
-      </c>
-      <c r="D87" t="s">
-        <v>121</v>
-      </c>
-      <c r="E87" t="s">
-        <v>4</v>
-      </c>
-      <c r="F87" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88">
-        <v>18330051920185</v>
-      </c>
-      <c r="B88" t="s">
-        <v>75</v>
-      </c>
-      <c r="C88" t="s">
-        <v>97</v>
-      </c>
-      <c r="D88" t="s">
-        <v>121</v>
-      </c>
-      <c r="E88" t="s">
-        <v>7</v>
-      </c>
-      <c r="F88" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="A89">
-        <v>18330051920188</v>
-      </c>
-      <c r="B89" t="s">
-        <v>76</v>
-      </c>
-      <c r="C89" t="s">
-        <v>98</v>
-      </c>
-      <c r="D89" t="s">
-        <v>122</v>
-      </c>
-      <c r="E89" t="s">
-        <v>5</v>
-      </c>
-      <c r="F89" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="A90">
-        <v>18330051920188</v>
-      </c>
-      <c r="B90" t="s">
-        <v>76</v>
-      </c>
-      <c r="C90" t="s">
-        <v>98</v>
-      </c>
-      <c r="D90" t="s">
-        <v>122</v>
-      </c>
-      <c r="E90" t="s">
-        <v>4</v>
-      </c>
-      <c r="F90" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
-      <c r="A91">
-        <v>18330051920188</v>
-      </c>
-      <c r="B91" t="s">
-        <v>76</v>
-      </c>
-      <c r="C91" t="s">
-        <v>98</v>
-      </c>
-      <c r="D91" t="s">
-        <v>122</v>
-      </c>
-      <c r="E91" t="s">
-        <v>7</v>
-      </c>
-      <c r="F91" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="A92">
-        <v>18330051920188</v>
-      </c>
-      <c r="B92" t="s">
-        <v>76</v>
-      </c>
-      <c r="C92" t="s">
-        <v>98</v>
-      </c>
-      <c r="D92" t="s">
-        <v>122</v>
-      </c>
-      <c r="E92" t="s">
-        <v>9</v>
-      </c>
-      <c r="F92" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
-      <c r="A93">
-        <v>18330051920190</v>
-      </c>
-      <c r="B93" t="s">
-        <v>77</v>
-      </c>
-      <c r="C93" t="s">
-        <v>99</v>
-      </c>
-      <c r="D93" t="s">
-        <v>123</v>
-      </c>
-      <c r="E93" t="s">
-        <v>7</v>
-      </c>
-      <c r="F93" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="A94">
-        <v>18330051920190</v>
-      </c>
-      <c r="B94" t="s">
-        <v>77</v>
-      </c>
-      <c r="C94" t="s">
-        <v>99</v>
-      </c>
-      <c r="D94" t="s">
-        <v>123</v>
-      </c>
-      <c r="E94" t="s">
-        <v>4</v>
-      </c>
-      <c r="F94" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95">
-        <v>18330051920190</v>
-      </c>
-      <c r="B95" t="s">
-        <v>77</v>
-      </c>
-      <c r="C95" t="s">
-        <v>99</v>
-      </c>
-      <c r="D95" t="s">
-        <v>123</v>
-      </c>
-      <c r="E95" t="s">
-        <v>9</v>
-      </c>
-      <c r="F95" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
-      <c r="A96">
-        <v>18330051920190</v>
-      </c>
-      <c r="B96" t="s">
-        <v>77</v>
-      </c>
-      <c r="C96" t="s">
-        <v>99</v>
-      </c>
-      <c r="D96" t="s">
-        <v>123</v>
-      </c>
-      <c r="E96" t="s">
-        <v>5</v>
-      </c>
-      <c r="F96" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
-      <c r="A97">
-        <v>18330051920189</v>
-      </c>
-      <c r="B97" t="s">
-        <v>77</v>
-      </c>
-      <c r="C97" t="s">
-        <v>99</v>
-      </c>
-      <c r="D97" t="s">
-        <v>124</v>
-      </c>
-      <c r="E97" t="s">
-        <v>7</v>
-      </c>
-      <c r="F97" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
-      <c r="A98">
-        <v>18330051920189</v>
-      </c>
-      <c r="B98" t="s">
-        <v>77</v>
-      </c>
-      <c r="C98" t="s">
-        <v>99</v>
-      </c>
-      <c r="D98" t="s">
-        <v>124</v>
-      </c>
-      <c r="E98" t="s">
-        <v>9</v>
-      </c>
-      <c r="F98" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99">
-        <v>18330051920189</v>
-      </c>
-      <c r="B99" t="s">
-        <v>77</v>
-      </c>
-      <c r="C99" t="s">
-        <v>99</v>
-      </c>
-      <c r="D99" t="s">
-        <v>124</v>
-      </c>
-      <c r="E99" t="s">
-        <v>4</v>
-      </c>
-      <c r="F99" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
-      <c r="A100">
-        <v>18330051920189</v>
-      </c>
-      <c r="B100" t="s">
-        <v>77</v>
-      </c>
-      <c r="C100" t="s">
-        <v>99</v>
-      </c>
-      <c r="D100" t="s">
-        <v>124</v>
-      </c>
-      <c r="E100" t="s">
-        <v>5</v>
-      </c>
-      <c r="F100" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
-      <c r="A101">
-        <v>18330051920191</v>
-      </c>
-      <c r="B101" t="s">
-        <v>78</v>
-      </c>
-      <c r="C101" t="s">
-        <v>89</v>
-      </c>
-      <c r="D101" t="s">
-        <v>125</v>
-      </c>
-      <c r="E101" t="s">
-        <v>4</v>
-      </c>
-      <c r="F101" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
-      <c r="A102">
-        <v>18330051920191</v>
-      </c>
-      <c r="B102" t="s">
-        <v>78</v>
-      </c>
-      <c r="C102" t="s">
-        <v>89</v>
-      </c>
-      <c r="D102" t="s">
-        <v>125</v>
-      </c>
-      <c r="E102" t="s">
-        <v>9</v>
-      </c>
-      <c r="F102" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
-      <c r="A103">
-        <v>18330051920191</v>
-      </c>
-      <c r="B103" t="s">
-        <v>78</v>
-      </c>
-      <c r="C103" t="s">
-        <v>89</v>
-      </c>
-      <c r="D103" t="s">
-        <v>125</v>
-      </c>
-      <c r="E103" t="s">
-        <v>7</v>
-      </c>
-      <c r="F103" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
-      <c r="A104">
-        <v>18330051920191</v>
-      </c>
-      <c r="B104" t="s">
-        <v>78</v>
-      </c>
-      <c r="C104" t="s">
-        <v>89</v>
-      </c>
-      <c r="D104" t="s">
-        <v>125</v>
-      </c>
-      <c r="E104" t="s">
-        <v>5</v>
-      </c>
-      <c r="F104" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
-      <c r="A105">
-        <v>18330051920391</v>
-      </c>
-      <c r="B105" t="s">
-        <v>79</v>
-      </c>
-      <c r="C105" t="s">
-        <v>94</v>
-      </c>
-      <c r="D105" t="s">
-        <v>126</v>
-      </c>
-      <c r="E105" t="s">
-        <v>4</v>
-      </c>
-      <c r="F105" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
-      <c r="A106">
-        <v>18330051920391</v>
-      </c>
-      <c r="B106" t="s">
-        <v>79</v>
-      </c>
-      <c r="C106" t="s">
-        <v>94</v>
-      </c>
-      <c r="D106" t="s">
-        <v>126</v>
-      </c>
-      <c r="E106" t="s">
-        <v>5</v>
-      </c>
-      <c r="F106" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
-      <c r="A107">
-        <v>18330051920391</v>
-      </c>
-      <c r="B107" t="s">
-        <v>79</v>
-      </c>
-      <c r="C107" t="s">
-        <v>94</v>
-      </c>
-      <c r="D107" t="s">
-        <v>126</v>
-      </c>
-      <c r="E107" t="s">
-        <v>9</v>
-      </c>
-      <c r="F107" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
-      <c r="A108">
-        <v>18330051920391</v>
-      </c>
-      <c r="B108" t="s">
-        <v>79</v>
-      </c>
-      <c r="C108" t="s">
-        <v>94</v>
-      </c>
-      <c r="D108" t="s">
-        <v>126</v>
-      </c>
-      <c r="E108" t="s">
-        <v>7</v>
-      </c>
-      <c r="F108" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
-      <c r="A109">
-        <v>17330051920264</v>
-      </c>
-      <c r="B109" t="s">
-        <v>80</v>
-      </c>
-      <c r="C109" t="s">
-        <v>100</v>
-      </c>
-      <c r="D109" t="s">
-        <v>127</v>
-      </c>
-      <c r="E109" t="s">
-        <v>4</v>
-      </c>
-      <c r="F109" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
-      <c r="A110">
-        <v>17330051920264</v>
-      </c>
-      <c r="B110" t="s">
-        <v>80</v>
-      </c>
-      <c r="C110" t="s">
-        <v>100</v>
-      </c>
-      <c r="D110" t="s">
-        <v>127</v>
-      </c>
-      <c r="E110" t="s">
-        <v>5</v>
-      </c>
-      <c r="F110" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
-      <c r="A111">
-        <v>17330051920264</v>
-      </c>
-      <c r="B111" t="s">
-        <v>80</v>
-      </c>
-      <c r="C111" t="s">
-        <v>100</v>
-      </c>
-      <c r="D111" t="s">
-        <v>127</v>
-      </c>
-      <c r="E111" t="s">
-        <v>8</v>
-      </c>
-      <c r="F111" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
-      <c r="A112">
-        <v>17330051920264</v>
-      </c>
-      <c r="B112" t="s">
-        <v>80</v>
-      </c>
-      <c r="C112" t="s">
-        <v>100</v>
-      </c>
-      <c r="D112" t="s">
-        <v>127</v>
-      </c>
-      <c r="E112" t="s">
-        <v>9</v>
-      </c>
-      <c r="F112" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
-      <c r="A113">
-        <v>17330051920264</v>
-      </c>
-      <c r="B113" t="s">
-        <v>80</v>
-      </c>
-      <c r="C113" t="s">
-        <v>100</v>
-      </c>
-      <c r="D113" t="s">
-        <v>127</v>
-      </c>
-      <c r="E113" t="s">
-        <v>7</v>
-      </c>
-      <c r="F113" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
-      <c r="A114">
-        <v>18330051920110</v>
-      </c>
-      <c r="B114" t="s">
-        <v>81</v>
-      </c>
-      <c r="C114" t="s">
-        <v>101</v>
-      </c>
-      <c r="D114" t="s">
-        <v>128</v>
-      </c>
-      <c r="E114" t="s">
-        <v>4</v>
-      </c>
-      <c r="F114" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
-      <c r="A115">
-        <v>18330051920110</v>
-      </c>
-      <c r="B115" t="s">
-        <v>81</v>
-      </c>
-      <c r="C115" t="s">
-        <v>101</v>
-      </c>
-      <c r="D115" t="s">
-        <v>128</v>
-      </c>
-      <c r="E115" t="s">
-        <v>9</v>
-      </c>
-      <c r="F115" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
-      <c r="A116">
-        <v>18330051920110</v>
-      </c>
-      <c r="B116" t="s">
-        <v>81</v>
-      </c>
-      <c r="C116" t="s">
-        <v>101</v>
-      </c>
-      <c r="D116" t="s">
-        <v>128</v>
-      </c>
-      <c r="E116" t="s">
-        <v>5</v>
-      </c>
-      <c r="F116" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
-      <c r="A117">
-        <v>18330051920110</v>
-      </c>
-      <c r="B117" t="s">
-        <v>81</v>
-      </c>
-      <c r="C117" t="s">
-        <v>101</v>
-      </c>
-      <c r="D117" t="s">
-        <v>128</v>
-      </c>
-      <c r="E117" t="s">
-        <v>7</v>
-      </c>
-      <c r="F117" t="s">
         <v>48</v>
       </c>
     </row>
@@ -5155,13 +3375,13 @@
         <v>17330051920334</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="D2" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="E2">
         <v>4</v>
@@ -5172,13 +3392,13 @@
         <v>18330051920108</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C3" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="D3" t="s">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="E3">
         <v>4</v>
@@ -5189,13 +3409,13 @@
         <v>17330051920264</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="C4" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="D4" t="s">
-        <v>127</v>
+        <v>91</v>
       </c>
       <c r="E4">
         <v>4</v>
@@ -5203,16 +3423,16 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>18330051920188</v>
+        <v>18330051920090</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="C5" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="D5" t="s">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -5220,16 +3440,16 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>18330051920391</v>
+        <v>18330051920446</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="C6" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="D6" t="s">
-        <v>126</v>
+        <v>83</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -5237,36 +3457,36 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>18330051920390</v>
+        <v>18330051920188</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C7" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D7" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>18330051920105</v>
+        <v>18330051920190</v>
       </c>
       <c r="B8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C8" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="D8" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -5274,16 +3494,16 @@
         <v>18330051920110</v>
       </c>
       <c r="B9" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="C9" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="D9" t="s">
-        <v>128</v>
+        <v>92</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -5294,95 +3514,95 @@
         <v>57</v>
       </c>
       <c r="C10" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="D10" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>18330051920089</v>
+        <v>18330051920088</v>
       </c>
       <c r="B11" t="s">
         <v>58</v>
       </c>
       <c r="C11" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="D11" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>18330051920088</v>
+        <v>18330051920103</v>
       </c>
       <c r="B12" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" t="s">
         <v>85</v>
       </c>
-      <c r="D12" t="s">
-        <v>105</v>
-      </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>18330051920090</v>
+        <v>18330051920189</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C13" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="D13" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>18330051920446</v>
+        <v>18330051920391</v>
       </c>
       <c r="B14" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C14" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D14" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>18330051920092</v>
+        <v>18330051920390</v>
       </c>
       <c r="B15" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C15" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="D15" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -5390,16 +3610,16 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>18330051920093</v>
+        <v>18330051920089</v>
       </c>
       <c r="B16" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="C16" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="D16" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -5407,16 +3627,16 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>18330051920095</v>
+        <v>18330051920092</v>
       </c>
       <c r="B17" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="C17" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="D17" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -5424,16 +3644,16 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>18330051920096</v>
+        <v>18330051920093</v>
       </c>
       <c r="B18" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="C18" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="D18" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -5441,16 +3661,16 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>18330051920100</v>
+        <v>18330051920095</v>
       </c>
       <c r="B19" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="C19" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="D19" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -5458,16 +3678,16 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>18330051920101</v>
+        <v>18330051920096</v>
       </c>
       <c r="B20" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="C20" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="D20" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -5475,16 +3695,16 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>18330051920103</v>
+        <v>18330051920100</v>
       </c>
       <c r="B21" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="C21" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="D21" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -5492,16 +3712,16 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>18330051920448</v>
+        <v>18330051920101</v>
       </c>
       <c r="B22" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="C22" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D22" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -5509,16 +3729,16 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>18330051920106</v>
+        <v>18330051920105</v>
       </c>
       <c r="B23" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="C23" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="D23" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -5526,16 +3746,16 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>18330051920109</v>
+        <v>18330051920448</v>
       </c>
       <c r="B24" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="C24" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D24" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -5543,16 +3763,16 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>18330051920183</v>
+        <v>18330051920106</v>
       </c>
       <c r="B25" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="C25" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="D25" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -5560,16 +3780,16 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>18330051920185</v>
+        <v>18330051920109</v>
       </c>
       <c r="B26" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="C26" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="D26" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -5577,16 +3797,16 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>18330051920190</v>
+        <v>18330051920183</v>
       </c>
       <c r="B27" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="C27" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="D27" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -5594,16 +3814,16 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>18330051920189</v>
+        <v>18330051920185</v>
       </c>
       <c r="B28" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="C28" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="D28" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -5614,13 +3834,13 @@
         <v>18330051920191</v>
       </c>
       <c r="B29" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="C29" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="D29" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -5633,7 +3853,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5663,7 +3883,237 @@
         <v>39</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>18330051920446</v>
+      </c>
+      <c r="B2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>18330051920446</v>
+      </c>
+      <c r="B3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>18330051920190</v>
+      </c>
+      <c r="B4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>18330051920190</v>
+      </c>
+      <c r="B5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>18330051920391</v>
+      </c>
+      <c r="B6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>18330051920391</v>
+      </c>
+      <c r="B7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>18330051920085</v>
+      </c>
+      <c r="B8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>18330051920088</v>
+      </c>
+      <c r="B9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>18330051920103</v>
+      </c>
+      <c r="B10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>18330051920189</v>
+      </c>
+      <c r="B11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/grupos/6ARHV - Estadisticos 2020.xlsx
+++ b/grupos/6ARHV - Estadisticos 2020.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="129">
   <si>
     <t>Materia</t>
   </si>
@@ -191,217 +191,217 @@
     <t>Nombres</t>
   </si>
   <si>
+    <t>BERINSTAIN</t>
+  </si>
+  <si>
+    <t>CARPINTEYRO</t>
+  </si>
+  <si>
+    <t>CIRUELO</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>RAMIREZ</t>
+  </si>
+  <si>
+    <t>VALDES</t>
+  </si>
+  <si>
+    <t>VERA</t>
+  </si>
+  <si>
+    <t>ZACARIAS</t>
+  </si>
+  <si>
+    <t>ZARATE</t>
+  </si>
+  <si>
+    <t>ZEPEDA</t>
+  </si>
+  <si>
+    <t>SAN JUAN</t>
+  </si>
+  <si>
+    <t>GAMBOA</t>
+  </si>
+  <si>
+    <t>MANCILLA</t>
+  </si>
+  <si>
+    <t>REYES</t>
+  </si>
+  <si>
+    <t>CORDOBA</t>
+  </si>
+  <si>
+    <t>MARIN</t>
+  </si>
+  <si>
+    <t>PAZOS</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>JIMENEZ</t>
+  </si>
+  <si>
+    <t>MORALES</t>
+  </si>
+  <si>
+    <t>LUIS FERNANDO</t>
+  </si>
+  <si>
+    <t>FATIMA</t>
+  </si>
+  <si>
+    <t>MARIA DEL CARMEN</t>
+  </si>
+  <si>
+    <t>MARIO</t>
+  </si>
+  <si>
+    <t>FRANCISCO JAVIER</t>
+  </si>
+  <si>
+    <t>BRENDA ELENA</t>
+  </si>
+  <si>
+    <t>CARLOS DANIEL</t>
+  </si>
+  <si>
+    <t>LUIS ALBERTO</t>
+  </si>
+  <si>
+    <t>EDUARDO DANIEL</t>
+  </si>
+  <si>
+    <t>NATHAEL</t>
+  </si>
+  <si>
     <t>ANTONIO</t>
   </si>
   <si>
-    <t>BERINSTAIN</t>
-  </si>
-  <si>
-    <t>CARPINTEYRO</t>
-  </si>
-  <si>
-    <t>CIRUELO</t>
-  </si>
-  <si>
-    <t>GONZALEZ</t>
+    <t>BRAVO</t>
+  </si>
+  <si>
+    <t>COSCAHUA</t>
+  </si>
+  <si>
+    <t>COXCAHUA</t>
+  </si>
+  <si>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t>HIDALGO</t>
+  </si>
+  <si>
+    <t>HUERTA</t>
   </si>
   <si>
     <t>MACUIXTLE</t>
   </si>
   <si>
-    <t>RAMIREZ</t>
-  </si>
-  <si>
-    <t>VALDES</t>
-  </si>
-  <si>
-    <t>VERA</t>
-  </si>
-  <si>
-    <t>ZACARIAS</t>
-  </si>
-  <si>
-    <t>ZARATE</t>
-  </si>
-  <si>
-    <t>ZEPEDA</t>
+    <t>MORAN</t>
+  </si>
+  <si>
+    <t>PALESTINO</t>
+  </si>
+  <si>
+    <t>PANTOJA</t>
+  </si>
+  <si>
+    <t>RAMOS</t>
+  </si>
+  <si>
+    <t>ROMAN</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>YOPIHUA</t>
   </si>
   <si>
     <t>IGNACIO</t>
   </si>
   <si>
-    <t>SAN JUAN</t>
-  </si>
-  <si>
-    <t>GAMBOA</t>
-  </si>
-  <si>
-    <t>MANCILLA</t>
-  </si>
-  <si>
-    <t>REYES</t>
-  </si>
-  <si>
-    <t>CORDOBA</t>
-  </si>
-  <si>
-    <t>MARIN</t>
-  </si>
-  <si>
-    <t>PAZOS</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>JIMENEZ</t>
-  </si>
-  <si>
-    <t>MORALES</t>
+    <t>ORTEGA</t>
+  </si>
+  <si>
+    <t>APALE</t>
+  </si>
+  <si>
+    <t>TZOYONTLE</t>
+  </si>
+  <si>
+    <t>ZEPAHUA</t>
+  </si>
+  <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>PERALTA</t>
+  </si>
+  <si>
+    <t>APOLINAR</t>
+  </si>
+  <si>
+    <t>JUAREZ</t>
+  </si>
+  <si>
+    <t>QUIAHUA</t>
   </si>
   <si>
     <t>JOSE MANUEL</t>
   </si>
   <si>
-    <t>LUIS FERNANDO</t>
-  </si>
-  <si>
-    <t>FATIMA</t>
-  </si>
-  <si>
-    <t>MARIA DEL CARMEN</t>
-  </si>
-  <si>
-    <t>MARIO</t>
+    <t>JUAN CARLOS</t>
+  </si>
+  <si>
+    <t>BRENDA IVETH</t>
+  </si>
+  <si>
+    <t>GUADALUPE</t>
+  </si>
+  <si>
+    <t>DARIO</t>
+  </si>
+  <si>
+    <t>ABEL DAMIAN</t>
+  </si>
+  <si>
+    <t>MARIA JOSE</t>
+  </si>
+  <si>
+    <t>MONSERRAT</t>
+  </si>
+  <si>
+    <t>ANGELL DAYANI</t>
   </si>
   <si>
     <t>JOSUE SAMUEL</t>
   </si>
   <si>
-    <t>FRANCISCO JAVIER</t>
-  </si>
-  <si>
-    <t>BRENDA ELENA</t>
-  </si>
-  <si>
-    <t>CARLOS DANIEL</t>
+    <t>ALAN MIGUEL</t>
+  </si>
+  <si>
+    <t>YAZMIN ISABEL</t>
+  </si>
+  <si>
+    <t>ARIANA GUADALUPE</t>
+  </si>
+  <si>
+    <t>ALEXANDRO</t>
+  </si>
+  <si>
+    <t>LORENA</t>
   </si>
   <si>
     <t>CARLA DANIELA</t>
-  </si>
-  <si>
-    <t>LUIS ALBERTO</t>
-  </si>
-  <si>
-    <t>EDUARDO DANIEL</t>
-  </si>
-  <si>
-    <t>NATHAEL</t>
-  </si>
-  <si>
-    <t>BRAVO</t>
-  </si>
-  <si>
-    <t>COSCAHUA</t>
-  </si>
-  <si>
-    <t>COXCAHUA</t>
-  </si>
-  <si>
-    <t>FLORES</t>
-  </si>
-  <si>
-    <t>HIDALGO</t>
-  </si>
-  <si>
-    <t>HUERTA</t>
-  </si>
-  <si>
-    <t>MORAN</t>
-  </si>
-  <si>
-    <t>PALESTINO</t>
-  </si>
-  <si>
-    <t>PANTOJA</t>
-  </si>
-  <si>
-    <t>RAMOS</t>
-  </si>
-  <si>
-    <t>ROMAN</t>
-  </si>
-  <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
-    <t>YOPIHUA</t>
-  </si>
-  <si>
-    <t>ORTEGA</t>
-  </si>
-  <si>
-    <t>APALE</t>
-  </si>
-  <si>
-    <t>TZOYONTLE</t>
-  </si>
-  <si>
-    <t>ZEPAHUA</t>
-  </si>
-  <si>
-    <t>MARTINEZ</t>
-  </si>
-  <si>
-    <t>PERALTA</t>
-  </si>
-  <si>
-    <t>APOLINAR</t>
-  </si>
-  <si>
-    <t>JUAREZ</t>
-  </si>
-  <si>
-    <t>QUIAHUA</t>
-  </si>
-  <si>
-    <t>JUAN CARLOS</t>
-  </si>
-  <si>
-    <t>BRENDA IVETH</t>
-  </si>
-  <si>
-    <t>GUADALUPE</t>
-  </si>
-  <si>
-    <t>DARIO</t>
-  </si>
-  <si>
-    <t>ABEL DAMIAN</t>
-  </si>
-  <si>
-    <t>MARIA JOSE</t>
-  </si>
-  <si>
-    <t>MONSERRAT</t>
-  </si>
-  <si>
-    <t>ANGELL DAYANI</t>
-  </si>
-  <si>
-    <t>ALAN MIGUEL</t>
-  </si>
-  <si>
-    <t>YAZMIN ISABEL</t>
-  </si>
-  <si>
-    <t>ARIANA GUADALUPE</t>
-  </si>
-  <si>
-    <t>ALEXANDRO</t>
-  </si>
-  <si>
-    <t>LORENA</t>
   </si>
   <si>
     <t>KRISTAL</t>
@@ -888,7 +888,7 @@
         <v>7</v>
       </c>
       <c r="I4">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J4">
         <v>9</v>
@@ -1652,7 +1652,7 @@
         <v>7</v>
       </c>
       <c r="H17">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I17">
         <v>7</v>
@@ -2127,7 +2127,7 @@
         <v>7</v>
       </c>
       <c r="I25">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J25">
         <v>9</v>
@@ -2186,7 +2186,7 @@
         <v>7</v>
       </c>
       <c r="I26">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J26">
         <v>8</v>
@@ -2478,7 +2478,7 @@
         <v>6</v>
       </c>
       <c r="H31">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I31">
         <v>-1</v>
@@ -2578,25 +2578,25 @@
         <v>28</v>
       </c>
       <c r="D2">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E2">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F2">
-        <v>60.71</v>
+        <v>67.86</v>
       </c>
       <c r="G2">
-        <v>39.29</v>
+        <v>32.14</v>
       </c>
       <c r="H2">
-        <v>8.199999999999999</v>
+        <v>7.9</v>
       </c>
       <c r="I2">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J2">
-        <v>39.29</v>
+        <v>28.57</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2610,25 +2610,25 @@
         <v>28</v>
       </c>
       <c r="D3">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F3">
-        <v>71.43000000000001</v>
+        <v>78.56999999999999</v>
       </c>
       <c r="G3">
-        <v>28.57</v>
+        <v>21.43</v>
       </c>
       <c r="H3">
-        <v>8.1</v>
+        <v>7.9</v>
       </c>
       <c r="I3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J3">
-        <v>28.57</v>
+        <v>21.43</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2766,7 +2766,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2798,42 +2798,42 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>18330051920085</v>
+        <v>18330051920088</v>
       </c>
       <c r="B2" t="s">
         <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>18330051920088</v>
+        <v>18330051920090</v>
       </c>
       <c r="B3" t="s">
         <v>58</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2841,16 +2841,16 @@
         <v>18330051920090</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F4" t="s">
         <v>48</v>
@@ -2858,16 +2858,16 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>18330051920090</v>
+        <v>18330051920446</v>
       </c>
       <c r="B5" t="s">
         <v>59</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E5" t="s">
         <v>4</v>
@@ -2881,13 +2881,13 @@
         <v>18330051920446</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D6" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E6" t="s">
         <v>5</v>
@@ -2898,22 +2898,22 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>18330051920446</v>
+        <v>17330051920334</v>
       </c>
       <c r="B7" t="s">
         <v>60</v>
       </c>
       <c r="C7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E7" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2921,19 +2921,19 @@
         <v>17330051920334</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D8" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2941,13 +2941,13 @@
         <v>17330051920334</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C9" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D9" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E9" t="s">
         <v>5</v>
@@ -2961,59 +2961,59 @@
         <v>17330051920334</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C10" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D10" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E10" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>17330051920334</v>
+        <v>18330051920108</v>
       </c>
       <c r="B11" t="s">
         <v>61</v>
       </c>
       <c r="C11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D11" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>18330051920103</v>
+        <v>18330051920108</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C12" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="D12" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E12" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F12" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3021,13 +3021,13 @@
         <v>18330051920108</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D13" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E13" t="s">
         <v>8</v>
@@ -3041,16 +3041,16 @@
         <v>18330051920108</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C14" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D14" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E14" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F14" t="s">
         <v>48</v>
@@ -3058,16 +3058,16 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>18330051920108</v>
+        <v>18330051920188</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D15" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E15" t="s">
         <v>9</v>
@@ -3078,16 +3078,16 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>18330051920108</v>
+        <v>18330051920190</v>
       </c>
       <c r="B16" t="s">
         <v>63</v>
       </c>
       <c r="C16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D16" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E16" t="s">
         <v>5</v>
@@ -3098,36 +3098,36 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>18330051920188</v>
+        <v>18330051920190</v>
       </c>
       <c r="B17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C17" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D17" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E17" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F17" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>18330051920188</v>
+        <v>18330051920391</v>
       </c>
       <c r="B18" t="s">
         <v>64</v>
       </c>
       <c r="C18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D18" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E18" t="s">
         <v>5</v>
@@ -3138,16 +3138,16 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>18330051920190</v>
+        <v>17330051920264</v>
       </c>
       <c r="B19" t="s">
         <v>65</v>
       </c>
       <c r="C19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D19" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E19" t="s">
         <v>4</v>
@@ -3158,16 +3158,16 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>18330051920190</v>
+        <v>17330051920264</v>
       </c>
       <c r="B20" t="s">
         <v>65</v>
       </c>
       <c r="C20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D20" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E20" t="s">
         <v>5</v>
@@ -3178,161 +3178,61 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>18330051920189</v>
+        <v>17330051920264</v>
       </c>
       <c r="B21" t="s">
         <v>65</v>
       </c>
       <c r="C21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D21" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E21" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>18330051920391</v>
+        <v>17330051920264</v>
       </c>
       <c r="B22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C22" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D22" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E22" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F22" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>17330051920264</v>
+        <v>18330051920110</v>
       </c>
       <c r="B23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C23" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D23" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E23" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24">
-        <v>17330051920264</v>
-      </c>
-      <c r="B24" t="s">
-        <v>67</v>
-      </c>
-      <c r="C24" t="s">
-        <v>78</v>
-      </c>
-      <c r="D24" t="s">
-        <v>91</v>
-      </c>
-      <c r="E24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25">
-        <v>17330051920264</v>
-      </c>
-      <c r="B25" t="s">
-        <v>67</v>
-      </c>
-      <c r="C25" t="s">
-        <v>78</v>
-      </c>
-      <c r="D25" t="s">
-        <v>91</v>
-      </c>
-      <c r="E25" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26">
-        <v>17330051920264</v>
-      </c>
-      <c r="B26" t="s">
-        <v>67</v>
-      </c>
-      <c r="C26" t="s">
-        <v>78</v>
-      </c>
-      <c r="D26" t="s">
-        <v>91</v>
-      </c>
-      <c r="E26" t="s">
-        <v>5</v>
-      </c>
-      <c r="F26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27">
-        <v>18330051920110</v>
-      </c>
-      <c r="B27" t="s">
-        <v>68</v>
-      </c>
-      <c r="C27" t="s">
-        <v>79</v>
-      </c>
-      <c r="D27" t="s">
-        <v>92</v>
-      </c>
-      <c r="E27" t="s">
-        <v>5</v>
-      </c>
-      <c r="F27" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28">
-        <v>18330051920110</v>
-      </c>
-      <c r="B28" t="s">
-        <v>68</v>
-      </c>
-      <c r="C28" t="s">
-        <v>79</v>
-      </c>
-      <c r="D28" t="s">
-        <v>92</v>
-      </c>
-      <c r="E28" t="s">
-        <v>4</v>
-      </c>
-      <c r="F28" t="s">
         <v>48</v>
       </c>
     </row>
@@ -3375,13 +3275,13 @@
         <v>17330051920334</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E2">
         <v>4</v>
@@ -3392,13 +3292,13 @@
         <v>18330051920108</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E3">
         <v>4</v>
@@ -3409,13 +3309,13 @@
         <v>17330051920264</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E4">
         <v>4</v>
@@ -3426,13 +3326,13 @@
         <v>18330051920090</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -3443,13 +3343,13 @@
         <v>18330051920446</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D6" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -3457,16 +3357,16 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>18330051920188</v>
+        <v>18330051920190</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -3474,50 +3374,50 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>18330051920190</v>
+        <v>18330051920088</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D8" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>18330051920110</v>
+        <v>18330051920188</v>
       </c>
       <c r="B9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C9" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D9" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>18330051920085</v>
+        <v>18330051920391</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D10" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -3525,16 +3425,16 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>18330051920088</v>
+        <v>18330051920110</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C11" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D11" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -3542,64 +3442,64 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>18330051920103</v>
+        <v>18330051920085</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="C12" t="s">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="D12" t="s">
-        <v>85</v>
+        <v>112</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>18330051920189</v>
+        <v>18330051920390</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="C13" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="D13" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>18330051920391</v>
+        <v>18330051920089</v>
       </c>
       <c r="B14" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="C14" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="D14" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>18330051920390</v>
+        <v>18330051920092</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="C15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D15" t="s">
         <v>115</v>
@@ -3610,13 +3510,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>18330051920089</v>
+        <v>18330051920093</v>
       </c>
       <c r="B16" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D16" t="s">
         <v>116</v>
@@ -3627,13 +3527,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>18330051920092</v>
+        <v>18330051920095</v>
       </c>
       <c r="B17" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D17" t="s">
         <v>117</v>
@@ -3644,13 +3544,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>18330051920093</v>
+        <v>18330051920096</v>
       </c>
       <c r="B18" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D18" t="s">
         <v>118</v>
@@ -3661,13 +3561,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>18330051920095</v>
+        <v>18330051920100</v>
       </c>
       <c r="B19" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D19" t="s">
         <v>119</v>
@@ -3678,13 +3578,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>18330051920096</v>
+        <v>18330051920101</v>
       </c>
       <c r="B20" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C20" t="s">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="D20" t="s">
         <v>120</v>
@@ -3695,13 +3595,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>18330051920100</v>
+        <v>18330051920103</v>
       </c>
       <c r="B21" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C21" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="D21" t="s">
         <v>121</v>
@@ -3712,16 +3612,16 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>18330051920101</v>
+        <v>18330051920105</v>
       </c>
       <c r="B22" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C22" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D22" t="s">
-        <v>122</v>
+        <v>79</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -3729,16 +3629,16 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>18330051920105</v>
+        <v>18330051920448</v>
       </c>
       <c r="B23" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C23" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="D23" t="s">
-        <v>83</v>
+        <v>122</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -3746,13 +3646,13 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>18330051920448</v>
+        <v>18330051920106</v>
       </c>
       <c r="B24" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C24" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="D24" t="s">
         <v>123</v>
@@ -3763,13 +3663,13 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>18330051920106</v>
+        <v>18330051920109</v>
       </c>
       <c r="B25" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C25" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="D25" t="s">
         <v>124</v>
@@ -3780,13 +3680,13 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>18330051920109</v>
+        <v>18330051920183</v>
       </c>
       <c r="B26" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D26" t="s">
         <v>125</v>
@@ -3797,13 +3697,13 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>18330051920183</v>
+        <v>18330051920185</v>
       </c>
       <c r="B27" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C27" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D27" t="s">
         <v>126</v>
@@ -3814,13 +3714,13 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>18330051920185</v>
+        <v>18330051920189</v>
       </c>
       <c r="B28" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="C28" t="s">
-        <v>114</v>
+        <v>73</v>
       </c>
       <c r="D28" t="s">
         <v>127</v>
@@ -3834,10 +3734,10 @@
         <v>18330051920191</v>
       </c>
       <c r="B29" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C29" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D29" t="s">
         <v>128</v>
@@ -3853,7 +3753,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3891,13 +3791,13 @@
         <v>18330051920446</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
@@ -3914,13 +3814,13 @@
         <v>18330051920446</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E3" t="s">
         <v>5</v>
@@ -3937,13 +3837,13 @@
         <v>18330051920190</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E4" t="s">
         <v>4</v>
@@ -3960,13 +3860,13 @@
         <v>18330051920190</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D5" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E5" t="s">
         <v>5</v>
@@ -3983,13 +3883,13 @@
         <v>18330051920391</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D6" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E6" t="s">
         <v>5</v>
@@ -4006,13 +3906,13 @@
         <v>18330051920391</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E7" t="s">
         <v>7</v>
@@ -4026,16 +3926,16 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>18330051920085</v>
+        <v>18330051920110</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D8" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="E8" t="s">
         <v>5</v>
@@ -4049,70 +3949,47 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>18330051920088</v>
+        <v>18330051920110</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D9" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G9">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>18330051920103</v>
+        <v>18330051920088</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D10" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="E10" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G10">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>18330051920189</v>
-      </c>
-      <c r="B11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" t="s">
-        <v>76</v>
-      </c>
-      <c r="D11" t="s">
-        <v>89</v>
-      </c>
-      <c r="E11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11">
         <v>-1</v>
       </c>
     </row>

--- a/grupos/6ARHV - Estadisticos 2020.xlsx
+++ b/grupos/6ARHV - Estadisticos 2020.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="129">
   <si>
     <t>Materia</t>
   </si>
@@ -1180,7 +1180,7 @@
         <v>7</v>
       </c>
       <c r="H9">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I9">
         <v>-1</v>
@@ -1478,7 +1478,7 @@
         <v>-1</v>
       </c>
       <c r="I14">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J14">
         <v>7</v>
@@ -1891,7 +1891,7 @@
         <v>-1</v>
       </c>
       <c r="I21">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J21">
         <v>7</v>
@@ -2590,21 +2590,21 @@
         <v>32.14</v>
       </c>
       <c r="H2">
-        <v>7.9</v>
+        <v>7.6</v>
       </c>
       <c r="I2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J2">
-        <v>28.57</v>
+        <v>21.43</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C3">
         <v>28</v>
@@ -2613,54 +2613,54 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>78.56999999999999</v>
       </c>
       <c r="G3">
-        <v>21.43</v>
+        <v>10.71</v>
       </c>
       <c r="H3">
-        <v>7.9</v>
+        <v>7.3</v>
       </c>
       <c r="I3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J3">
-        <v>21.43</v>
+        <v>14.29</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C4">
         <v>28</v>
       </c>
       <c r="D4">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F4">
-        <v>78.56999999999999</v>
+        <v>82.14</v>
       </c>
       <c r="G4">
-        <v>10.71</v>
+        <v>17.86</v>
       </c>
       <c r="H4">
-        <v>7.3</v>
+        <v>7.8</v>
       </c>
       <c r="I4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J4">
-        <v>14.29</v>
+        <v>17.86</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2766,7 +2766,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2830,7 +2830,7 @@
         <v>78</v>
       </c>
       <c r="E3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F3" t="s">
         <v>48</v>
@@ -2850,7 +2850,7 @@
         <v>78</v>
       </c>
       <c r="E4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F4" t="s">
         <v>48</v>
@@ -2870,7 +2870,7 @@
         <v>79</v>
       </c>
       <c r="E5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F5" t="s">
         <v>48</v>
@@ -2878,19 +2878,19 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>18330051920446</v>
+        <v>17330051920334</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F6" t="s">
         <v>48</v>
@@ -2930,50 +2930,50 @@
         <v>80</v>
       </c>
       <c r="E8" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>17330051920334</v>
+        <v>18330051920108</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E9" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>17330051920334</v>
+        <v>18330051920108</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2990,24 +2990,24 @@
         <v>81</v>
       </c>
       <c r="E11" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F11" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>18330051920108</v>
+        <v>18330051920188</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E12" t="s">
         <v>9</v>
@@ -3018,39 +3018,39 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>18330051920108</v>
+        <v>18330051920190</v>
       </c>
       <c r="B13" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C13" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E13" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>18330051920108</v>
+        <v>18330051920190</v>
       </c>
       <c r="B14" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C14" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D14" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F14" t="s">
         <v>48</v>
@@ -3058,59 +3058,59 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>18330051920188</v>
+        <v>18330051920391</v>
       </c>
       <c r="B15" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C15" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D15" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E15" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F15" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>18330051920190</v>
+        <v>17330051920264</v>
       </c>
       <c r="B16" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C16" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D16" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E16" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F16" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>18330051920190</v>
+        <v>17330051920264</v>
       </c>
       <c r="B17" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C17" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D17" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E17" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F17" t="s">
         <v>48</v>
@@ -3118,19 +3118,19 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>18330051920391</v>
+        <v>17330051920264</v>
       </c>
       <c r="B18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C18" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D18" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F18" t="s">
         <v>48</v>
@@ -3150,89 +3150,29 @@
         <v>85</v>
       </c>
       <c r="E19" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>17330051920264</v>
+        <v>18330051920110</v>
       </c>
       <c r="B20" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C20" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D20" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E20" t="s">
         <v>5</v>
       </c>
       <c r="F20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21">
-        <v>17330051920264</v>
-      </c>
-      <c r="B21" t="s">
-        <v>65</v>
-      </c>
-      <c r="C21" t="s">
-        <v>75</v>
-      </c>
-      <c r="D21" t="s">
-        <v>85</v>
-      </c>
-      <c r="E21" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22">
-        <v>17330051920264</v>
-      </c>
-      <c r="B22" t="s">
-        <v>65</v>
-      </c>
-      <c r="C22" t="s">
-        <v>75</v>
-      </c>
-      <c r="D22" t="s">
-        <v>85</v>
-      </c>
-      <c r="E22" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23">
-        <v>18330051920110</v>
-      </c>
-      <c r="B23" t="s">
-        <v>66</v>
-      </c>
-      <c r="C23" t="s">
-        <v>76</v>
-      </c>
-      <c r="D23" t="s">
-        <v>86</v>
-      </c>
-      <c r="E23" t="s">
-        <v>5</v>
-      </c>
-      <c r="F23" t="s">
         <v>48</v>
       </c>
     </row>
@@ -3272,16 +3212,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>17330051920334</v>
+        <v>17330051920264</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E2">
         <v>4</v>
@@ -3289,36 +3229,36 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>18330051920108</v>
+        <v>17330051920334</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>17330051920264</v>
+        <v>18330051920108</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3340,16 +3280,16 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>18330051920446</v>
+        <v>18330051920190</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D6" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -3357,33 +3297,33 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>18330051920190</v>
+        <v>18330051920088</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C7" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>18330051920088</v>
+        <v>18330051920446</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -3753,7 +3693,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3788,16 +3728,16 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>18330051920446</v>
+        <v>18330051920190</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
@@ -3811,16 +3751,16 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>18330051920446</v>
+        <v>18330051920190</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D3" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E3" t="s">
         <v>5</v>
@@ -3834,19 +3774,19 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>18330051920190</v>
+        <v>18330051920391</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F4" t="s">
         <v>48</v>
@@ -3857,39 +3797,39 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>18330051920190</v>
+        <v>18330051920391</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G5">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>18330051920391</v>
+        <v>18330051920110</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E6" t="s">
         <v>5</v>
@@ -3903,16 +3843,16 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>18330051920391</v>
+        <v>18330051920110</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E7" t="s">
         <v>7</v>
@@ -3926,22 +3866,22 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>18330051920110</v>
+        <v>18330051920088</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D8" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="E8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G8">
         <v>-1</v>
@@ -3949,47 +3889,24 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>18330051920110</v>
+        <v>18330051920446</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C9" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D9" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>18330051920088</v>
-      </c>
-      <c r="B10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" t="s">
-        <v>67</v>
-      </c>
-      <c r="D10" t="s">
-        <v>77</v>
-      </c>
-      <c r="E10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" t="s">
-        <v>49</v>
-      </c>
-      <c r="G10">
         <v>-1</v>
       </c>
     </row>

--- a/grupos/6ARHV - Estadisticos 2020.xlsx
+++ b/grupos/6ARHV - Estadisticos 2020.xlsx
@@ -1699,7 +1699,7 @@
         <v>6</v>
       </c>
       <c r="D18">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E18">
         <v>6</v>
@@ -2910,10 +2910,10 @@
         <v>80</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2930,10 +2930,10 @@
         <v>80</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2950,10 +2950,10 @@
         <v>81</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2970,10 +2970,10 @@
         <v>81</v>
       </c>
       <c r="E10" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2990,10 +2990,10 @@
         <v>81</v>
       </c>
       <c r="E11" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3030,7 +3030,7 @@
         <v>83</v>
       </c>
       <c r="E13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F13" t="s">
         <v>48</v>
@@ -3050,7 +3050,7 @@
         <v>83</v>
       </c>
       <c r="E14" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F14" t="s">
         <v>48</v>
@@ -3110,7 +3110,7 @@
         <v>85</v>
       </c>
       <c r="E17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F17" t="s">
         <v>48</v>
@@ -3130,10 +3130,10 @@
         <v>85</v>
       </c>
       <c r="E18" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3150,10 +3150,10 @@
         <v>85</v>
       </c>
       <c r="E19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:6">

--- a/grupos/6ARHV - Estadisticos 2020.xlsx
+++ b/grupos/6ARHV - Estadisticos 2020.xlsx
@@ -167,7 +167,7 @@
     <t>Martínez López Miguel Ángel</t>
   </si>
   <si>
-    <t>Duran Amezcua Maria Angelica</t>
+    <t>Duran Amezcua María Angélica</t>
   </si>
   <si>
     <t>Domínguez Burgos Marioscar</t>
@@ -2950,10 +2950,10 @@
         <v>81</v>
       </c>
       <c r="E9" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2970,10 +2970,10 @@
         <v>81</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2990,10 +2990,10 @@
         <v>81</v>
       </c>
       <c r="E11" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3030,7 +3030,7 @@
         <v>83</v>
       </c>
       <c r="E13" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F13" t="s">
         <v>48</v>
@@ -3050,7 +3050,7 @@
         <v>83</v>
       </c>
       <c r="E14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F14" t="s">
         <v>48</v>
@@ -3090,10 +3090,10 @@
         <v>85</v>
       </c>
       <c r="E16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -3110,7 +3110,7 @@
         <v>85</v>
       </c>
       <c r="E17" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F17" t="s">
         <v>48</v>
@@ -3130,10 +3130,10 @@
         <v>85</v>
       </c>
       <c r="E18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F18" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3150,7 +3150,7 @@
         <v>85</v>
       </c>
       <c r="E19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F19" t="s">
         <v>48</v>
